--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD74884-C2E6-924F-BBC8-4DD26D826DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812B44A-5DD6-C943-AEDD-4FF686AFDC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="2840" windowWidth="28040" windowHeight="15920" firstSheet="8" activeTab="11" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="9" activeTab="21" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -26,16 +26,19 @@
     <sheet name="Divide &amp; Conquer" sheetId="11" r:id="rId11"/>
     <sheet name="DP" sheetId="12" r:id="rId12"/>
     <sheet name="Greedy" sheetId="13" r:id="rId13"/>
-    <sheet name="Two Pointers" sheetId="14" r:id="rId14"/>
-    <sheet name="Graph" sheetId="15" r:id="rId15"/>
-    <sheet name="Backtrack" sheetId="16" r:id="rId16"/>
-    <sheet name="Math" sheetId="17" r:id="rId17"/>
-    <sheet name="Bit" sheetId="18" r:id="rId18"/>
-    <sheet name="Sliding Window" sheetId="19" r:id="rId19"/>
-    <sheet name="Simulation" sheetId="20" r:id="rId20"/>
-    <sheet name="OOD" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="25" r:id="rId14"/>
+    <sheet name="Two Pointers" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId16"/>
+    <sheet name="Graph" sheetId="15" r:id="rId17"/>
+    <sheet name="Backtrack" sheetId="16" r:id="rId18"/>
+    <sheet name="Math" sheetId="17" r:id="rId19"/>
+    <sheet name="Bit" sheetId="18" r:id="rId20"/>
+    <sheet name="Sliding Window" sheetId="19" r:id="rId21"/>
+    <sheet name="Simulation" sheetId="20" r:id="rId22"/>
+    <sheet name="OOD" sheetId="21" r:id="rId23"/>
+    <sheet name="Combined" sheetId="23" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="348">
   <si>
     <t>#</t>
   </si>
@@ -395,9 +398,6 @@
     <t>1328 破坏回文串</t>
   </si>
   <si>
-    <t>828 统计子串中的唯一字符：字符串</t>
-  </si>
-  <si>
     <t>1592 重新排列单词间的空格</t>
   </si>
   <si>
@@ -416,9 +416,6 @@
     <t>973 最接近原点的K个点</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>239 滑动窗口最大值</t>
   </si>
   <si>
@@ -1008,13 +1005,109 @@
   </si>
   <si>
     <t>460 LFU</t>
+  </si>
+  <si>
+    <t>1245 树的直径</t>
+  </si>
+  <si>
+    <t>2246 相邻字符不同的最长路径</t>
+  </si>
+  <si>
+    <t>545 二叉树的边界</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>Algorithm/Mind</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>358 K距离重排字符串</t>
+  </si>
+  <si>
+    <t>Backtrack</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Presum</t>
+  </si>
+  <si>
+    <t>Stack/Monotonous Stack</t>
+  </si>
+  <si>
+    <t>285 二叉搜索树中的中序后继</t>
+  </si>
+  <si>
+    <t>348 设计井字棋</t>
+  </si>
+  <si>
+    <t>937 重新排列日志文件</t>
+  </si>
+  <si>
+    <t>828 统计子串中的唯一字符</t>
+  </si>
+  <si>
+    <t>2214 通关游戏所需的最低生命值</t>
+  </si>
+  <si>
+    <t>2104 子数组范围和</t>
+  </si>
+  <si>
+    <t>472 连接词</t>
+  </si>
+  <si>
+    <t>2193 得到回文串的最少操作次数</t>
+  </si>
+  <si>
+    <t>2055 蜡烛之间的盘子</t>
+  </si>
+  <si>
+    <t>1268 搜索推荐系统</t>
+  </si>
+  <si>
+    <t>588 设计内存文件系统</t>
+  </si>
+  <si>
+    <t>1864 构成交替字符串需要的最小交换次数</t>
+  </si>
+  <si>
+    <t>2221 数组的三角和</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1061,13 +1154,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -1079,6 +1165,72 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1105,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1123,10 +1275,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1442,324 +1622,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEBEE3E-F0EC-6444-B662-E3F6072FA40A}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="58.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>283</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>566</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>485</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>645</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>697</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
         <v>20220918</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
         <v>20220917</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>240</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>378</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>287</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>667</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>565</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16">
         <v>20220919</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
         <v>20220620</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
         <v>20220625</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16">
         <v>20220822</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16">
         <v>20220822</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16">
         <v>20220822</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16">
         <v>20220922</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16">
         <v>20221213</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16">
         <v>20230315</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16">
         <v>20221229</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16">
         <v>20221230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="16">
         <v>20221231</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="16">
         <v>20221231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="16">
         <v>20211229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20230323</v>
       </c>
     </row>
   </sheetData>
@@ -1784,6 +1974,7 @@
     <hyperlink ref="A25" r:id="rId15" display="https://leetcode.cn/problems/matrix-block-sum/solution/1314-ju-zhen-qu-yu-he-qian-zhui-he-by-wy-wb1q/" xr:uid="{55FAD2E6-D743-6B4D-9A4A-9B5D6599A4A4}"/>
     <hyperlink ref="A26" r:id="rId16" display="https://leetcode.cn/problems/gou-jian-cheng-ji-shu-zu-lcof/solution/-by-wywy-m-prms/" xr:uid="{7896A256-1687-AC42-B541-CEBE7608ACF7}"/>
     <hyperlink ref="A27" r:id="rId17" display="https://leetcode.cn/problems/car-pooling/solution/1094-by-wywy-m-nynd/" xr:uid="{7F958BE9-6BCA-974B-8544-FD3ED7DEBFA9}"/>
+    <hyperlink ref="A29" r:id="rId18" xr:uid="{0D314D86-B176-9A4E-A240-D5722C1AC8DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1882,7 +2073,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1893,7 +2084,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1937,7 +2128,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1948,7 +2139,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -1959,7 +2150,7 @@
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1970,7 +2161,7 @@
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -1981,7 +2172,7 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -2003,7 +2194,7 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -2014,7 +2205,7 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -2058,13 +2249,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2088,7 +2279,7 @@
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -2099,7 +2290,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2121,7 +2312,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2132,7 +2323,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -2143,7 +2334,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -2170,17 +2361,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C54" sqref="A54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2217,8 +2409,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>167</v>
+      <c r="A4" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -2228,8 +2420,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>140</v>
+      <c r="A5" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2239,8 +2431,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>141</v>
+      <c r="A6" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -2250,8 +2442,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>142</v>
+      <c r="A7" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -2305,8 +2497,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>143</v>
+      <c r="A12" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -2316,8 +2508,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>144</v>
+      <c r="A13" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -2360,8 +2552,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>145</v>
+      <c r="A17" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -2371,8 +2563,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>146</v>
+      <c r="A18" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -2393,8 +2585,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>147</v>
+      <c r="A20" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -2404,8 +2596,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>148</v>
+      <c r="A21" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -2426,8 +2618,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>149</v>
+      <c r="A23" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -2448,8 +2640,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>150</v>
+      <c r="A25" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -2459,8 +2651,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>152</v>
+      <c r="A26" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -2470,8 +2662,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>153</v>
+      <c r="A27" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -2481,8 +2673,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>154</v>
+      <c r="A28" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -2492,8 +2684,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>156</v>
+      <c r="A29" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -2503,8 +2695,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>157</v>
+      <c r="A30" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -2514,8 +2706,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>160</v>
+      <c r="A31" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -2525,8 +2717,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>163</v>
+      <c r="A32" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
@@ -2536,8 +2728,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>166</v>
+      <c r="A33" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -2547,8 +2739,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>168</v>
+      <c r="A34" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -2558,8 +2750,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>169</v>
+      <c r="A35" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -2569,8 +2761,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>170</v>
+      <c r="A36" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -2580,8 +2772,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>173</v>
+      <c r="A37" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
@@ -2591,8 +2783,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>174</v>
+      <c r="A38" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -2602,8 +2794,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>175</v>
+      <c r="A39" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -2613,8 +2805,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>177</v>
+      <c r="A40" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -2624,8 +2816,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>151</v>
+      <c r="A41" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
@@ -2635,8 +2827,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>155</v>
+      <c r="A42" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
@@ -2646,8 +2838,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>158</v>
+      <c r="A43" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
@@ -2657,8 +2849,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>159</v>
+      <c r="A44" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
@@ -2668,8 +2860,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>161</v>
+      <c r="A45" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
@@ -2679,8 +2871,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>162</v>
+      <c r="A46" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
@@ -2690,8 +2882,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>164</v>
+      <c r="A47" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -2701,8 +2893,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>165</v>
+      <c r="A48" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
@@ -2712,8 +2904,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>171</v>
+      <c r="A49" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
@@ -2723,8 +2915,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>172</v>
+      <c r="A50" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
@@ -2734,8 +2926,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>176</v>
+      <c r="A51" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -2745,8 +2937,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>178</v>
+      <c r="A52" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
@@ -2756,7 +2948,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2764,6 +2956,17 @@
       </c>
       <c r="C53" s="2">
         <v>20230314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
+        <v>20230322</v>
       </c>
     </row>
   </sheetData>
@@ -2811,6 +3014,7 @@
     <hyperlink ref="A40" r:id="rId38" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/solution/718-zui-chang-zhong-fu-zi-shu-zu-dp-by-y-unfp/" xr:uid="{B028BBEC-FC38-9B4A-B240-AAF8A2519AFC}"/>
     <hyperlink ref="A52" r:id="rId39" display="https://leetcode.cn/problems/substring-with-largest-variance/solution/2272-zui-da-bo-dong-de-zi-zi-fu-chuan-dp-zai2/" xr:uid="{C4E39D24-CA1B-4D4F-84FE-5A9F21DBFEF2}"/>
     <hyperlink ref="A53" r:id="rId40" display="https://leetcode.cn/problems/maximum-number-of-books-you-can-take/solution/2355-ni-neng-na-zou-de-zui-da-tu-shu-shu-4cwe/" xr:uid="{CFA00C0F-A1B9-2143-9567-C1D46DE839B4}"/>
+    <hyperlink ref="A54" r:id="rId41" xr:uid="{143774B1-1CB5-584A-A7EA-EFB7FAE785C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2818,357 +3022,392 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E45454-ABB5-A740-839B-4BC8D58C720C}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="22.83203125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>455</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>121</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>122</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>605</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>392</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>665</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20220829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
+        <v>20220829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>406</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20220829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16">
+        <v>20230317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>763</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20220829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>406</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16">
+        <v>20230312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20230317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>763</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16">
+        <v>20230312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20230312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>20220911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20230312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <v>20221129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <v>20220727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16">
         <v>20220911</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20221129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16">
+        <v>20220924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16">
+        <v>20221011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16">
+        <v>20230311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16">
+        <v>20230318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16">
+        <v>20221017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16">
+        <v>20221017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16">
+        <v>20221019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="16">
+        <v>20221207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="16">
+        <v>20230307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="16">
+        <v>20230307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20230311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20220727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="16">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20220911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20220924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20221011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20230311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20230318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>20221017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20221017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20221019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>20221207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>20230307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
-        <v>20230307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20230311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2">
-        <v>20220913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="16">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="16">
+        <v>20230321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2">
-        <v>20220919</v>
+      <c r="C33" s="16">
+        <v>20230322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="16">
+        <v>20230323</v>
       </c>
     </row>
   </sheetData>
@@ -3198,294 +3437,320 @@
     <hyperlink ref="A27" r:id="rId20" display="https://leetcode.cn/problems/remove-covered-intervals/solution/1288-shan-chu-bei-fu-gai-qu-jian-tan-xin-1vte/" xr:uid="{EEC4AD27-956B-1D44-9369-C2E98E19FC35}"/>
     <hyperlink ref="A28" r:id="rId21" display="https://leetcode.cn/problems/video-stitching/solution/1024-shi-pin-pin-jie-tan-xin-by-ywrx-51z5/" xr:uid="{B17ED673-AFF8-E646-9105-7EA163B5234F}"/>
     <hyperlink ref="A29" r:id="rId22" display="https://leetcode.cn/problems/longest-happy-string/solution/1405-zui-chang-kuai-le-zi-fu-chuan-tan-x-rnol/" xr:uid="{5EECF6E9-5B70-A048-97AD-62802AEEBAE4}"/>
+    <hyperlink ref="A32" r:id="rId23" xr:uid="{E830922D-631C-A841-A908-BE96CF32A7D9}"/>
+    <hyperlink ref="A33" r:id="rId24" xr:uid="{1BB1A7DC-260F-5547-A272-B29B3C31BC6A}"/>
+    <hyperlink ref="A34" r:id="rId25" xr:uid="{C5B8642E-3DE7-F146-81F2-3585047BA96A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793BCECD-8B46-DA42-B72E-66FE64C4766E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F31A8D-9C09-434F-A40A-68C34FD0E968}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="42.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="19"/>
+    <col min="3" max="3" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>167</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>633</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>345</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>680</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>141</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>20220610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>20220615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16">
+        <v>20221221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>524</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16">
+        <v>20220926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16">
+        <v>20220905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>20211225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20220610</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <v>20220625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16">
+        <v>20220918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16">
+        <v>20221221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16">
+        <v>20221221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16">
+        <v>20221222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16">
+        <v>20221229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="16">
+        <v>20211229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20220615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20221221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>524</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20220926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="16">
         <v>20220905</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20211225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20220913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20220625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20220918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20220919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20221221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20221221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20221222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>20221229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20211229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20220905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19">
+        <v>20230323</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
@@ -3510,17 +3775,30 @@
     <hyperlink ref="A21" r:id="rId16" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array-ii/solution/80-by-wywy-m-qyex/" xr:uid="{FE931081-628C-0648-8BB5-62E0A2316B3C}"/>
     <hyperlink ref="A22" r:id="rId17" display="https://leetcode.cn/problems/interval-list-intersections/solution/-by-wywy-m-z4yl/" xr:uid="{21F9F626-4B11-2645-AC79-94ADDF4EE693}"/>
     <hyperlink ref="A23" r:id="rId18" display="https://leetcode.cn/problems/linked-list-cycle-ii/solution/-by-wywy-m-fjpu/" xr:uid="{CD023019-7696-A640-916E-97A74A371A21}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{EC284C1F-ADF6-0447-B1A8-F3DF20F019ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC598EB-09F3-404C-9B2A-92FB7D1755E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3532,8 +3810,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>219</v>
+      <c r="A1" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3827,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3560,7 +3838,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -3571,7 +3849,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -3582,7 +3860,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3593,7 +3871,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -3604,7 +3882,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -3615,7 +3893,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -3625,8 +3903,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>227</v>
+      <c r="A10" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3644,7 +3922,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -3655,7 +3933,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -3666,7 +3944,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -3677,7 +3955,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -3688,7 +3966,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -3699,7 +3977,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -3710,7 +3988,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -3721,7 +3999,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -3732,7 +4010,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -3743,7 +4021,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -3754,7 +4032,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -3764,13 +4042,13 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>239</v>
+      <c r="A23" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -3781,7 +4059,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -3792,7 +4070,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -3803,7 +4081,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -3814,7 +4092,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -3825,7 +4103,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -3836,7 +4114,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -3847,7 +4125,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -3858,7 +4136,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -3869,7 +4147,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -3880,7 +4158,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -3890,9 +4168,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20230319</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -3927,7 +4211,7 @@
     <hyperlink ref="A22" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
     <hyperlink ref="A20" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
     <hyperlink ref="A32" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
-    <hyperlink ref="A33" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
+    <hyperlink ref="A33" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
     <hyperlink ref="A24" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
     <hyperlink ref="A25" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
     <hyperlink ref="A26" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
@@ -3937,12 +4221,13 @@
     <hyperlink ref="A30" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
     <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
     <hyperlink ref="A34" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
+    <hyperlink ref="A35" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A632-C78C-6347-8E5A-4720E264DA34}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -3957,19 +4242,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -3980,7 +4265,7 @@
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3991,7 +4276,7 @@
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -4002,7 +4287,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -4013,7 +4298,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4024,7 +4309,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -4035,7 +4320,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -4046,7 +4331,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -4057,7 +4342,7 @@
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -4068,7 +4353,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -4079,7 +4364,7 @@
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -4090,7 +4375,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -4101,7 +4386,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -4112,7 +4397,7 @@
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -4123,7 +4408,7 @@
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -4134,7 +4419,7 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -4145,7 +4430,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -4156,7 +4441,7 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -4167,7 +4452,7 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -4178,7 +4463,7 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -4189,7 +4474,7 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -4229,7 +4514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0168C-78E6-194A-941B-C4F6EE34E1A2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4244,19 +4529,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4267,7 +4552,7 @@
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -4278,7 +4563,7 @@
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4289,7 +4574,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -4300,7 +4585,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4311,7 +4596,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -4322,7 +4607,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -4333,7 +4618,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -4344,7 +4629,7 @@
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -4355,7 +4640,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -4366,7 +4651,7 @@
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -4377,7 +4662,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -4388,7 +4673,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -4399,7 +4684,7 @@
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -4410,7 +4695,7 @@
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -4421,7 +4706,7 @@
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -4432,7 +4717,7 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -4443,7 +4728,7 @@
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -4454,7 +4739,7 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -4492,310 +4777,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7589A38-5576-3242-8FA0-5F40561FA4C2}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20230227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20230227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>190</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>461</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20230307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20230227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>342</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>693</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>476</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>371</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20211128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20220620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>137</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>260</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>338</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>318</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20230311</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition ref="B2:B18" customList="E,M,H"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/single-number/solution/136-zhi-chu-xian-yi-ci-de-shu-zi-bit-by-aysss/" xr:uid="{6838D459-36E5-C44B-BFDE-C5635CA20824}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/number-of-1-bits/solution/191-wei-1de-ge-shu-by-ywrx-r1f3/" xr:uid="{9DDC3AB9-19E1-E04D-A0CB-5E28295BA66F}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://leetcode.cn/problems/missing-number/solution/268-diu-shi-de-shu-zi-bit-by-ywrx-si0w/" xr:uid="{FF558E44-4191-CB4D-8751-3009379D1378}"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://leetcode.cn/problems/power-of-two/solution/231-2de-mi-bit-by-ywrx-irdd/" xr:uid="{A2EA1759-7E96-C348-A4C4-14CD318FEB9D}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://leetcode-cn.com/problems/add-binary/solution/67-er-jin-zhi-qiu-he-er-jin-zhi-by-wywy-xjbur/" xr:uid="{425415C8-27C2-7145-BA85-27F3506280BD}"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/is-unique-lcci/solution/pan-ding-zi-fu-shi-fou-wei-yi-bit-by-ywr-3rks/" xr:uid="{7D2F2735-0C48-B247-BFC8-1105E3BC7758}"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://leetcode.cn/problems/cinema-seat-allocation/solution/1386-an-pai-dian-ying-yuan-zuo-wei-bit-b-l08z/" xr:uid="{577E6685-B9DD-754A-8E42-A51972308DDA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69C234-EDE8-3643-8B34-F99DBD5F82C4}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20220925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
-    <sortCondition ref="B2:B6" customList="E,M,H"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://leetcode.cn/problems/minimum-window-substring/solution/-by-wywy-m-4hkf/" xr:uid="{586C3D79-F444-EE44-AE54-56E600B621B0}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.cn/problems/permutation-in-string/solution/567-zi-fu-chuan-de-pai-lie-by-wywy-m-q1ts/" xr:uid="{2517D657-6FDF-2C42-B7E5-78624A2E7708}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/submissions/" xr:uid="{EBF4977C-672D-CA4A-A9C6-B64D0B827A2F}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/solution/3-wu-zhong-fu-zi-fu-chuan-de-zui-chang-z-fkie/" xr:uid="{D10DC5BA-2CF7-7C43-A026-3D3D46E2FF79}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.cn/problems/longest-repeating-character-replacement/solution/424-ti-huan-hou-de-zui-chang-zhong-fu-zi-djg2/" xr:uid="{F2FA77A7-AA80-3243-B2BC-2B7820F310A2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6EE472-789D-FD41-8B4D-13FA02AD5B6B}">
   <dimension ref="A1:C26"/>
@@ -4812,13 +4793,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5128,127 +5109,442 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7589A38-5576-3242-8FA0-5F40561FA4C2}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>20221020</v>
+        <v>20230227</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>20230317</v>
+        <v>20230227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>461</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20230307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20230227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>342</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>693</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>476</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>371</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20211128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20220620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>260</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>338</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>318</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20230311</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="B2:B18" customList="E,M,H"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/single-number/solution/136-zhi-chu-xian-yi-ci-de-shu-zi-bit-by-aysss/" xr:uid="{6838D459-36E5-C44B-BFDE-C5635CA20824}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/number-of-1-bits/solution/191-wei-1de-ge-shu-by-ywrx-r1f3/" xr:uid="{9DDC3AB9-19E1-E04D-A0CB-5E28295BA66F}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://leetcode.cn/problems/missing-number/solution/268-diu-shi-de-shu-zi-bit-by-ywrx-si0w/" xr:uid="{FF558E44-4191-CB4D-8751-3009379D1378}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://leetcode.cn/problems/power-of-two/solution/231-2de-mi-bit-by-ywrx-irdd/" xr:uid="{A2EA1759-7E96-C348-A4C4-14CD318FEB9D}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://leetcode-cn.com/problems/add-binary/solution/67-er-jin-zhi-qiu-he-er-jin-zhi-by-wywy-xjbur/" xr:uid="{425415C8-27C2-7145-BA85-27F3506280BD}"/>
+    <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/is-unique-lcci/solution/pan-ding-zi-fu-shi-fou-wei-yi-bit-by-ywr-3rks/" xr:uid="{7D2F2735-0C48-B247-BFC8-1105E3BC7758}"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://leetcode.cn/problems/cinema-seat-allocation/solution/1386-an-pai-dian-ying-yuan-zuo-wei-bit-b-l08z/" xr:uid="{577E6685-B9DD-754A-8E42-A51972308DDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69C234-EDE8-3643-8B34-F99DBD5F82C4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20220823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20220823</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>20220911</v>
+        <v>20220823</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>20220911</v>
+        <v>20220925</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20220823</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition ref="B2:B6" customList="E,M,H"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://leetcode.cn/problems/minimum-window-substring/solution/-by-wywy-m-4hkf/" xr:uid="{586C3D79-F444-EE44-AE54-56E600B621B0}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.cn/problems/permutation-in-string/solution/567-zi-fu-chuan-de-pai-lie-by-wywy-m-q1ts/" xr:uid="{2517D657-6FDF-2C42-B7E5-78624A2E7708}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/submissions/" xr:uid="{EBF4977C-672D-CA4A-A9C6-B64D0B827A2F}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/solution/3-wu-zhong-fu-zi-fu-chuan-de-zui-chang-z-fkie/" xr:uid="{D10DC5BA-2CF7-7C43-A026-3D3D46E2FF79}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.cn/problems/longest-repeating-character-replacement/solution/424-ti-huan-hou-de-zui-chang-zhong-fu-zi-djg2/" xr:uid="{F2FA77A7-AA80-3243-B2BC-2B7820F310A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20221020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20230317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20220911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>20220911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>20220914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20220913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20220914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20220918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20220918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
         <v>20221207</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16">
         <v>20230309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16">
+        <v>20230322</v>
       </c>
     </row>
   </sheetData>
@@ -5265,133 +5561,147 @@
     <hyperlink ref="A9" r:id="rId7" display="https://leetcode.cn/problems/fruit-into-baskets/solution/904-shui-guo-cheng-lan-by-wywy-m-f0m7/" xr:uid="{D9731780-F5A9-984D-A64F-5A0892D5FF40}"/>
     <hyperlink ref="A10" r:id="rId8" display="https://leetcode.cn/problems/find-missing-observations/solution/2028-zhao-chu-que-shi-de-guan-ce-shu-ju-wagg4/" xr:uid="{1345FCC1-8DF4-7B4D-856A-79217DE8026F}"/>
     <hyperlink ref="A3" r:id="rId9" display="https://leetcode.cn/problems/find-n-unique-integers-sum-up-to-zero/solution/1304-he-wei-ling-de-n-ge-bu-tong-zheng-s-oi7x/" xr:uid="{E5523D15-7AF9-B043-A0B1-6976D5C2D31D}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{19B31EC3-C3AB-A540-AA50-BC43CAFAAB4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B14B54-A49B-D04E-8B69-DCDF1E44241B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20220908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20220907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20220908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20220908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20220907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>20220911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20220908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>20220911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>20230318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20230212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20220911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20220911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20230318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16">
         <v>20230212</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
-        <v>20220913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20230212</v>
+      <c r="C11" s="16">
+        <v>20230323</v>
       </c>
     </row>
   </sheetData>
@@ -5408,6 +5718,207 @@
     <hyperlink ref="A7" r:id="rId7" display="https://leetcode-cn.com/problems/lru-cache/solution/146-lru-by-wywy-m-zu1k/" xr:uid="{4317DAE7-DDBA-954E-B9D0-6C938FC2CDB7}"/>
     <hyperlink ref="A8" r:id="rId8" display="https://leetcode.cn/problems/flatten-nested-list-iterator/solution/341-bian-ping-hua-qian-tao-lie-biao-die-9hkzc/" xr:uid="{698A819F-9708-2146-AD46-F61F59C8B741}"/>
     <hyperlink ref="A10" r:id="rId9" display="https://leetcode.cn/problems/lfu-cache/solution/460-lfuhuan-cun-hash-by-wywy-m-976p/" xr:uid="{1284FA53-A548-C248-A9C4-413BC0013767}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{5C8B9003-5BEC-D34B-97A5-D14B96CF7B14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F89BF6-4A8D-664D-8E62-AB0D738DFAF1}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="16.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="20.33203125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20230320</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20230317</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20230316</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20230314</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20230322</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="K1:P1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6779990A-D125-7245-B804-90393172C820}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{C57D52ED-E8EB-6D4C-9682-EE19593072DC}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{EAF3CE79-E428-6B4A-B267-A5B7847854EE}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{93CF8410-1552-BE4C-8593-1FBD9F494687}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{8D61AF77-A326-F64B-99B9-4672D806DB6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5415,33 +5926,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A83A485-E397-D14F-A499-2ABCFFE4002D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.6640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="5"/>
-    <col min="2" max="2" width="17" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="43.6640625" style="5"/>
+    <col min="1" max="1" width="43.6640625" style="4"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="43.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5452,7 +5963,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5463,7 +5974,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5471,6 +5982,17 @@
       </c>
       <c r="C4" s="4">
         <v>20230314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20230321</v>
       </c>
     </row>
   </sheetData>
@@ -5478,6 +6000,7 @@
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/sum-of-subarray-minimums/solution/-by-wywy-m-3zvm/" xr:uid="{7EEEE94A-C3AC-AE49-9892-22CC10019E51}"/>
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/sum-of-total-strength-of-wizards/solution/2281-wu-shi-de-zong-li-liang-he-dan-diao-wnph/" xr:uid="{7C2D514C-A6F3-0C45-B998-471D754D0FEE}"/>
     <hyperlink ref="A4" r:id="rId3" display="https://leetcode.cn/problems/maximum-number-of-books-you-can-take/solution/2355-ni-neng-na-zou-de-zui-da-tu-shu-shu-4cwe/" xr:uid="{43A5D73D-F2F4-C74D-AB2D-C6A8503D440A}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{41991166-E011-CE46-8BA7-FE375FA255B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5485,26 +6008,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9675C-39F8-DD4C-B84E-2CBC8BF054BB}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="14.6640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5747,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>8.14</v>
+        <v>20220814</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5758,7 +6283,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>8.24</v>
+        <v>20220824</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5769,7 +6294,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>8.24</v>
+        <v>20220824</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5780,7 +6305,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>8.24</v>
+        <v>20220824</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5791,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>8.24</v>
+        <v>20220824</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5802,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>8.24</v>
+        <v>20220824</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5883,81 +6408,114 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20230319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>20230319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>145</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1028</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2">
-        <v>20220927</v>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>42</v>
+      <c r="A39" s="2">
+        <v>1028</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="2">
-        <v>20220913</v>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2">
-        <v>20220925</v>
+        <v>20220927</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20220925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2">
         <v>20230214</v>
       </c>
     </row>
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>20230322</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
-    <sortCondition ref="B2:B41" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
+    <sortCondition ref="B2:B44" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/solution/104-er-cha-shu-de-zui-da-shen-du-shu-by-smwpy/" xr:uid="{08D582DB-A038-0941-ACC2-9AEAB96DDC5A}"/>
     <hyperlink ref="A17" r:id="rId2" display="https://leetcode.cn/problems/count-complete-tree-nodes/solution/222-wan-quan-er-cha-shu-de-jie-dian-ge-s-gv2k/" xr:uid="{DD2058FB-CD62-F242-9141-C762B2318751}"/>
     <hyperlink ref="A18" r:id="rId3" display="https://leetcode.cn/problems/path-sum-iii/solution/437-lu-jing-zong-he-iiitree-by-ywrx-xmdz/" xr:uid="{C3464EDF-193E-284E-A817-AF93556304E3}"/>
     <hyperlink ref="A9" r:id="rId4" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/solution/111-er-cha-shu-de-zui-xiao-shen-du-tree-eom8f/" xr:uid="{652B1D71-125A-2649-9030-09CAAB213266}"/>
-    <hyperlink ref="A38" r:id="rId5" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/solution/by-wywy-m-hq9q/" xr:uid="{7151B8ED-20D5-054F-8EF5-850ABFBF02B2}"/>
+    <hyperlink ref="A40" r:id="rId5" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/solution/by-wywy-m-hq9q/" xr:uid="{7151B8ED-20D5-054F-8EF5-850ABFBF02B2}"/>
     <hyperlink ref="A23" r:id="rId6" display="https://leetcode.cn/problems/find-duplicate-subtrees/solution/by-wywy-m-rtut/" xr:uid="{523F2B60-52FD-9944-8879-7734F0C5B9BF}"/>
     <hyperlink ref="A24" r:id="rId7" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node/solution/116-tian-chong-mei-ge-jie-dian-de-xia-yi-i37x/" xr:uid="{DA4686E5-6C2E-EB46-851B-94F3BFF22950}"/>
     <hyperlink ref="A25" r:id="rId8" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/solution/114-er-cha-shu-zhan-kai-wei-lian-biao-by-50fg/" xr:uid="{CAD76D2D-3171-3446-A8E5-4CC06A26ED73}"/>
@@ -5966,8 +6524,8 @@
     <hyperlink ref="A28" r:id="rId11" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/solution/by-wywy-m-cg6e/" xr:uid="{260565A9-C7B8-F64A-B3C5-3D581A79DC9F}"/>
     <hyperlink ref="A29" r:id="rId12" display="https://leetcode.cn/problems/binary-tree-pruning/solution/814-er-cha-shu-jian-zhi-by-wywy-m-qu7n/" xr:uid="{F5F49D62-1A75-ED40-825B-B751EAB052B5}"/>
     <hyperlink ref="A30" r:id="rId13" display="https://leetcode.cn/problems/binary-tree-vertical-order-traversal/solution/314-er-cha-shu-de-chui-zhi-bian-li-er-ch-iyj7/" xr:uid="{378A8456-886F-AE45-828E-C7839F1B7053}"/>
-    <hyperlink ref="A39" r:id="rId14" display="https://leetcode.cn/problems/vertical-order-traversal-of-a-binary-tree/solution/-by-wywy-m-hdja/" xr:uid="{5E18DDA9-1148-1144-8D68-3095E5804803}"/>
-    <hyperlink ref="A40" r:id="rId15" display="https://leetcode.cn/problems/serialize-and-deserialize-binary-tree/solution/297-by-wywy-m-t65t/" xr:uid="{6764CBDE-0D86-4B4D-87C8-36140F491AA1}"/>
+    <hyperlink ref="A41" r:id="rId14" display="https://leetcode.cn/problems/vertical-order-traversal-of-a-binary-tree/solution/-by-wywy-m-hdja/" xr:uid="{5E18DDA9-1148-1144-8D68-3095E5804803}"/>
+    <hyperlink ref="A42" r:id="rId15" display="https://leetcode.cn/problems/serialize-and-deserialize-binary-tree/solution/297-by-wywy-m-t65t/" xr:uid="{6764CBDE-0D86-4B4D-87C8-36140F491AA1}"/>
     <hyperlink ref="A31" r:id="rId16" display="https://leetcode.cn/problems/binary-tree-longest-consecutive-sequence/solution/298-er-cha-shu-zui-chang-lian-xu-xu-lie-7ayi0/" xr:uid="{891B3748-96C8-964B-9313-F1B84DD4CA31}"/>
     <hyperlink ref="A32" r:id="rId17" display="https://leetcode.cn/problems/verify-preorder-serialization-of-a-binary-tree/solution/by-wywy-m-jclb/" xr:uid="{1A56129A-C5A4-9E4A-B7E6-0D6FAFBC63CF}"/>
     <hyperlink ref="A33" r:id="rId18" display="https://leetcode.cn/problems/univalued-binary-tree/solution/965-dan-zhi-er-cha-shu-tree-by-wywy-m-1dts/" xr:uid="{A75CBD02-FC5B-A644-B8D8-3242573AB8E2}"/>
@@ -5976,7 +6534,10 @@
     <hyperlink ref="A16" r:id="rId21" display="https://leetcode.cn/problems/maximum-depth-of-n-ary-tree/solution/559-n-cha-shu-de-zui-da-shen-du-di-gui-b-vav8/" xr:uid="{DF870943-0ECB-0947-98B5-C6E794608D4C}"/>
     <hyperlink ref="A34" r:id="rId22" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/solution/107-er-cha-shu-de-ceng-xu-bian-li-iitree-auhu/" xr:uid="{EC1E9DE1-46A6-BE45-932C-BAFF35EBF3D8}"/>
     <hyperlink ref="A35" r:id="rId23" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/solution/236-er-cha-shu-de-zui-jin-gong-gong-zu-x-e963/" xr:uid="{0D618AD9-1DB8-5646-A46C-CD475BCC00AD}"/>
-    <hyperlink ref="A41" r:id="rId24" display="https://leetcode.cn/problems/maximum-sum-bst-in-binary-tree/solution/1373-er-cha-sou-suo-zi-shu-de-zui-da-jia-hh0b/" xr:uid="{5D6F91B0-FB26-5B4C-8E5E-5A66C1555E95}"/>
+    <hyperlink ref="A43" r:id="rId24" display="https://leetcode.cn/problems/maximum-sum-bst-in-binary-tree/solution/1373-er-cha-sou-suo-zi-shu-de-zui-da-jia-hh0b/" xr:uid="{5D6F91B0-FB26-5B4C-8E5E-5A66C1555E95}"/>
+    <hyperlink ref="A36" r:id="rId25" xr:uid="{AA8650A6-4615-7A48-AF6E-58593930E8BC}"/>
+    <hyperlink ref="A37" r:id="rId26" xr:uid="{7EFDD8E6-A5D9-D243-BF9C-174B93993794}"/>
+    <hyperlink ref="A44" r:id="rId27" xr:uid="{CC14A0A8-50CC-D847-829E-993E8EF49BDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5984,18 +6545,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2432E89C-45E6-4247-A27A-CCC3BD519878}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.5" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="7"/>
-    <col min="2" max="2" width="21" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="38.5" style="7"/>
+    <col min="1" max="1" width="38.5" style="4"/>
+    <col min="2" max="2" width="21" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="38.5" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6216,6 +6777,17 @@
       </c>
       <c r="C20" s="2">
         <v>20230318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>20230320</v>
       </c>
     </row>
   </sheetData>
@@ -6231,6 +6803,7 @@
     <hyperlink ref="A18" r:id="rId6" display="https://leetcode.cn/problems/validate-binary-search-tree/solution/by-wywy-m-fzr7/" xr:uid="{DEE74CD2-1480-4A4B-857D-DDD19A609E46}"/>
     <hyperlink ref="A19" r:id="rId7" display="https://leetcode.cn/problems/unique-binary-search-trees-ii/solution/95-bu-tong-de-er-cha-sou-suo-shu-iibst-b-iim2/" xr:uid="{371F5DB0-AD19-B94F-9AEB-DD2664E8FE8D}"/>
     <hyperlink ref="A20" r:id="rId8" display="https://leetcode.cn/problems/inorder-successor-in-bst-ii/solution/510-er-cha-sou-suo-shu-zhong-de-zhong-xu-7g4f/" xr:uid="{EC10EE72-1496-7247-A3E4-2E417EF2BC05}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{E90B06F4-6424-124E-97E5-4A38493A9AFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6238,31 +6811,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38DCB7-D208-4A47-A52C-374E9CD57FFC}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6273,7 +6847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>217</v>
       </c>
@@ -6284,7 +6858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>594</v>
       </c>
@@ -6295,7 +6869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>242</v>
       </c>
@@ -6306,8 +6880,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6317,8 +6891,8 @@
         <v>20220626</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6328,8 +6902,8 @@
         <v>20220917</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6339,8 +6913,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6350,8 +6924,8 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6361,8 +6935,8 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6372,8 +6946,8 @@
         <v>20220623</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6383,8 +6957,8 @@
         <v>20220911</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6394,8 +6968,8 @@
         <v>20220913</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6405,8 +6979,8 @@
         <v>20220918</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6416,8 +6990,8 @@
         <v>20220918</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6427,8 +7001,8 @@
         <v>20220927</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6438,8 +7012,8 @@
         <v>20221010</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -6449,8 +7023,8 @@
         <v>20230312</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6460,8 +7034,8 @@
         <v>20230314</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6471,8 +7045,8 @@
         <v>20230316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -6482,8 +7056,8 @@
         <v>20230318</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6493,8 +7067,8 @@
         <v>20220919</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6504,8 +7078,8 @@
         <v>20220920</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6515,8 +7089,8 @@
         <v>20230212</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6524,6 +7098,17 @@
       </c>
       <c r="C25" s="2">
         <v>20230212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20230321</v>
       </c>
     </row>
   </sheetData>
@@ -6551,6 +7136,7 @@
     <hyperlink ref="A19" r:id="rId18" display="https://leetcode.cn/problems/analyze-user-website-visit-pattern/solution/1152-yong-hu-wang-zhan-xing-wei-fen-xi-h-qgxv/" xr:uid="{9BB92C4E-085C-9546-9891-0EE9D11FC2E2}"/>
     <hyperlink ref="A20" r:id="rId19" display="https://leetcode.cn/problems/minimum-number-of-keypresses/solution/2268-zui-shao-an-jian-ci-shu-hashmap-by-dowte/" xr:uid="{8ABFAC54-A220-2641-90E7-B808D0CA0F1E}"/>
     <hyperlink ref="A21" r:id="rId20" display="https://leetcode.cn/problems/maximal-network-rank/solution/1615-zui-da-wang-luo-zhi-hash-by-ywrx-xbkk/" xr:uid="{0222E21B-5E2A-A749-805E-180C098BF0E8}"/>
+    <hyperlink ref="A26" r:id="rId21" xr:uid="{B1E177DD-FD5A-4348-965A-48AFFA38F669}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6817,30 +7403,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5312F16-4C6A-4A4E-8695-9D34E91CF0B1}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="11.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>242</v>
       </c>
@@ -6851,7 +7439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>409</v>
       </c>
@@ -6862,7 +7450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>205</v>
       </c>
@@ -6873,7 +7461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>9</v>
       </c>
@@ -6884,7 +7472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>696</v>
       </c>
@@ -6895,7 +7483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>125</v>
       </c>
@@ -6906,9 +7494,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>114</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -6917,9 +7505,9 @@
         <v>20220906</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>115</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -6928,9 +7516,9 @@
         <v>20220913</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>116</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -6939,7 +7527,7 @@
         <v>20220917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>647</v>
       </c>
@@ -6950,8 +7538,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6961,9 +7549,9 @@
         <v>20220807</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>117</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -6972,9 +7560,9 @@
         <v>20220922</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -6983,15 +7571,26 @@
         <v>20230317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>113</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>20220905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20230321</v>
       </c>
     </row>
   </sheetData>
@@ -7006,6 +7605,7 @@
     <hyperlink ref="A10" r:id="rId5" display="https://leetcode.cn/problems/check-if-one-string-swap-can-make-strings-equal/solution/-by-wywy-m-d8pw/" xr:uid="{777AAFC0-0469-A24D-B069-F9A640105B3A}"/>
     <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/remove-comments/solution/by-wywy-m-ht1s/" xr:uid="{5937915A-E6C1-1747-B65B-3971BC6B9E38}"/>
     <hyperlink ref="A14" r:id="rId7" display="https://leetcode.cn/problems/minimum-deletions-to-make-string-balanced/solution/1653-shi-zi-fu-chuan-ping-heng-de-zui-sh-2f0h/" xr:uid="{B9261417-31AF-5642-98AF-B51161C9DE78}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{4169845B-5CBA-EF49-B6C7-D93D23DA5A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7016,89 +7616,91 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20230110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20230323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20230109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16">
+        <v>20220620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16">
+        <v>20230110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20230110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20230109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>20220620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20230110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="16">
         <v>20230316</v>
       </c>
     </row>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812B44A-5DD6-C943-AEDD-4FF686AFDC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D824F3B-A021-394E-8B07-350F96CEE9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="9" activeTab="21" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="9" activeTab="15" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -28,15 +28,14 @@
     <sheet name="Greedy" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet2" sheetId="25" r:id="rId14"/>
     <sheet name="Two Pointers" sheetId="14" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId16"/>
-    <sheet name="Graph" sheetId="15" r:id="rId17"/>
-    <sheet name="Backtrack" sheetId="16" r:id="rId18"/>
-    <sheet name="Math" sheetId="17" r:id="rId19"/>
-    <sheet name="Bit" sheetId="18" r:id="rId20"/>
-    <sheet name="Sliding Window" sheetId="19" r:id="rId21"/>
-    <sheet name="Simulation" sheetId="20" r:id="rId22"/>
-    <sheet name="OOD" sheetId="21" r:id="rId23"/>
-    <sheet name="Combined" sheetId="23" r:id="rId24"/>
+    <sheet name="Graph" sheetId="15" r:id="rId16"/>
+    <sheet name="Backtrack" sheetId="16" r:id="rId17"/>
+    <sheet name="Math" sheetId="17" r:id="rId18"/>
+    <sheet name="Bit" sheetId="18" r:id="rId19"/>
+    <sheet name="Sliding Window" sheetId="19" r:id="rId20"/>
+    <sheet name="Simulation" sheetId="20" r:id="rId21"/>
+    <sheet name="OOD" sheetId="21" r:id="rId22"/>
+    <sheet name="Combined" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="350">
   <si>
     <t>#</t>
   </si>
@@ -1101,13 +1100,19 @@
   </si>
   <si>
     <t>2221 数组的三角和</t>
+  </si>
+  <si>
+    <t>818 赛车</t>
+  </si>
+  <si>
+    <t>1293 网格中的最短路径</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1235,6 +1240,21 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1257,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1275,7 +1295,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1303,10 +1322,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1630,325 +1656,325 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="58.83203125" style="15"/>
+    <col min="1" max="16384" width="58.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>283</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>566</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>485</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>645</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>697</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
         <v>20220918</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15">
         <v>20220917</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>240</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>378</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>287</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>667</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>565</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20220919</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20220620</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20220625</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20220822</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
         <v>20220822</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
         <v>20220822</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
         <v>20220922</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
         <v>20221213</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15">
         <v>20230315</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15">
         <v>20221229</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
         <v>20221230</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
         <v>20221231</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15">
         <v>20221231</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>20211229</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
         <v>20230323</v>
       </c>
     </row>
@@ -2361,612 +2387,623 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C54" sqref="A54:C54"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="53.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>303</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
         <v>20220829</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
         <v>20220829</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
         <v>20220829</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>62</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>413</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>343</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>279</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>20220826</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>646</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>376</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>1143</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>474</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
         <v>20220825</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>139</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>309</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
         <v>20221226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
         <v>20220925</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15">
         <v>20220610</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15">
         <v>20220710</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="15">
         <v>20220829</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15">
         <v>20220831</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="15">
         <v>20220831</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="15">
         <v>20220831</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="15">
         <v>20220912</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="15">
         <v>20220923</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="15">
         <v>20220925</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="15">
         <v>20230308</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="15">
         <v>20221129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="15">
         <v>20220827</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="15">
         <v>20220828</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="15">
         <v>20220831</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="15">
         <v>20220831</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="15">
         <v>20230103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="15">
         <v>20230313</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="15">
         <v>20230314</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="15">
         <v>20230322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="18">
+        <v>20230324</v>
       </c>
     </row>
   </sheetData>
@@ -3015,6 +3052,7 @@
     <hyperlink ref="A52" r:id="rId39" display="https://leetcode.cn/problems/substring-with-largest-variance/solution/2272-zui-da-bo-dong-de-zi-zi-fu-chuan-dp-zai2/" xr:uid="{C4E39D24-CA1B-4D4F-84FE-5A9F21DBFEF2}"/>
     <hyperlink ref="A53" r:id="rId40" display="https://leetcode.cn/problems/maximum-number-of-books-you-can-take/solution/2355-ni-neng-na-zou-de-zui-da-tu-shu-shu-4cwe/" xr:uid="{CFA00C0F-A1B9-2143-9567-C1D46DE839B4}"/>
     <hyperlink ref="A54" r:id="rId41" xr:uid="{143774B1-1CB5-584A-A7EA-EFB7FAE785C2}"/>
+    <hyperlink ref="A55" r:id="rId42" xr:uid="{9CE5EBF7-DFF5-8C4C-800C-035221F3521C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3030,383 +3068,383 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="11"/>
-    <col min="3" max="3" width="22.83203125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="67.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="22.83203125" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>455</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>121</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>122</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>605</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>392</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>665</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>20220829</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
         <v>20220829</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>406</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15">
         <v>20230317</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>763</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>20230312</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20230312</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>20220911</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20221129</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20220727</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20220911</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
         <v>20220924</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
         <v>20221011</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
         <v>20230311</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
         <v>20230318</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15">
         <v>20221017</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15">
         <v>20221017</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
         <v>20221019</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
         <v>20221207</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15">
         <v>20230307</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15">
         <v>20230307</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
         <v>20230311</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>20220913</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>20220919</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="B32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15">
         <v>20230321</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>20230322</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="B34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15">
         <v>20230323</v>
       </c>
     </row>
@@ -3467,288 +3505,288 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="19"/>
-    <col min="3" max="3" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="42.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="18"/>
+    <col min="3" max="3" width="14.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>167</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>633</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16"/>
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>345</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>680</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>88</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>141</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
         <v>20220610</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
         <v>20220615</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
         <v>20221221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>524</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16"/>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>20220926</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20220905</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>20211225</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20220913</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20220625</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20220918</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
         <v>20220919</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
         <v>20221221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
         <v>20221221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
         <v>20221222</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15">
         <v>20221229</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>20211229</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>20220905</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="18">
         <v>20230323</v>
       </c>
     </row>
@@ -3782,399 +3820,391 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC598EB-09F3-404C-9B2A-92FB7D1755E3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20220912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20220920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>20230217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
+        <v>20230216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>20230216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
+        <v>20230217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>20230312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
+        <v>20220612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20220912</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20220920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20230217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20230216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20230216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20230217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20230312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20220612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20220912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>20220914</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20220917</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20220926</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20221020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
         <v>20230220</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C20" s="15">
         <v>20221018</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15">
+        <v>20230324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="15">
         <v>20230220</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15">
         <v>20220925</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
         <v>20230219</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
         <v>20220906</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15">
         <v>20220906</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15">
         <v>20220906</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
         <v>20220906</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
         <v>20220906</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15">
         <v>20220906</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="15">
         <v>20220913</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="15">
         <v>20220923</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="15">
         <v>20230308</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="15">
         <v>20230319</v>
       </c>
     </row>
@@ -4189,8 +4219,8 @@
       <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C22">
-    <sortCondition ref="B12:B22" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C22">
+    <sortCondition ref="B11:B22" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://leetcode.cn/problems/all-paths-from-source-to-target/solution/by-wywy-m-nqp0/" xr:uid="{62AA1BDA-9AEF-1D4E-985F-E4BFC300F9ED}"/>
@@ -4200,16 +4230,16 @@
     <hyperlink ref="A7" r:id="rId5" display="https://leetcode.cn/problems/course-schedule-ii/solution/210-ke-cheng-biao-iigraph-by-wywy-m-18nk/" xr:uid="{C7EEFC8F-2387-F14A-B36C-A22ACD69ECCB}"/>
     <hyperlink ref="A8" r:id="rId6" display="https://leetcode.cn/problems/network-delay-time/solution/743-wang-luo-yan-chi-shi-jian-dijkstra-b-6zyo/" xr:uid="{FC2F7E70-70B6-EC40-83E9-F14EEDE1A2B2}"/>
     <hyperlink ref="A9" r:id="rId7" display="https://leetcode.cn/problems/min-cost-to-connect-all-points/solution/1584-lian-jie-suo-you-dian-de-zui-xiao-f-dtmy/" xr:uid="{D6E252E8-6A56-B449-917D-D9191B43E8F1}"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/solution/1091-er-jin-zhi-ju-zhen-zui-duan-lu-jing-00dr/" xr:uid="{678CC0D2-5BB2-9447-A9D9-85A1922DAD7A}"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://leetcode.cn/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution/-by-wywy-m-hks2/" xr:uid="{433B27C5-3ADF-6344-8B10-3C6FE890D909}"/>
-    <hyperlink ref="A15" r:id="rId10" display="https://leetcode.cn/problems/web-crawler/solution/by-wywy-m-tq5x/" xr:uid="{1096138D-EBE2-324D-A769-E0CF4843CC45}"/>
-    <hyperlink ref="A16" r:id="rId11" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/solution/117-by-wywy-m-2dey/" xr:uid="{DB4092D2-CEB5-5F40-9A2F-A3D1F3E1FAD5}"/>
-    <hyperlink ref="A17" r:id="rId12" display="https://leetcode.cn/problems/evaluate-division/solution/by-wywy-m-fqcc/" xr:uid="{3BA99F54-D69C-BE40-BD52-19CC44580857}"/>
-    <hyperlink ref="A18" r:id="rId13" display="https://leetcode.cn/problems/walls-and-gates/solution/286-by-wywy-m-v89r/" xr:uid="{A1807D7E-F45A-BC4D-A674-450FE3CC3465}"/>
-    <hyperlink ref="A21" r:id="rId14" display="https://leetcode.cn/problems/shortest-distance-from-all-buildings/solution/317-by-wywy-m-31q4/" xr:uid="{7C3F06B2-F6CE-D941-A3E6-9CC13D48726B}"/>
-    <hyperlink ref="A19" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/solution/1091-er-jin-zhi-ju-zhen-zui-duan-lu-jing-00dr/" xr:uid="{678CC0D2-5BB2-9447-A9D9-85A1922DAD7A}"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://leetcode.cn/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution/-by-wywy-m-hks2/" xr:uid="{433B27C5-3ADF-6344-8B10-3C6FE890D909}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://leetcode.cn/problems/web-crawler/solution/by-wywy-m-tq5x/" xr:uid="{1096138D-EBE2-324D-A769-E0CF4843CC45}"/>
+    <hyperlink ref="A15" r:id="rId11" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/solution/117-by-wywy-m-2dey/" xr:uid="{DB4092D2-CEB5-5F40-9A2F-A3D1F3E1FAD5}"/>
+    <hyperlink ref="A16" r:id="rId12" display="https://leetcode.cn/problems/evaluate-division/solution/by-wywy-m-fqcc/" xr:uid="{3BA99F54-D69C-BE40-BD52-19CC44580857}"/>
+    <hyperlink ref="A17" r:id="rId13" display="https://leetcode.cn/problems/walls-and-gates/solution/286-by-wywy-m-v89r/" xr:uid="{A1807D7E-F45A-BC4D-A674-450FE3CC3465}"/>
+    <hyperlink ref="A20" r:id="rId14" display="https://leetcode.cn/problems/shortest-distance-from-all-buildings/solution/317-by-wywy-m-31q4/" xr:uid="{7C3F06B2-F6CE-D941-A3E6-9CC13D48726B}"/>
+    <hyperlink ref="A18" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
     <hyperlink ref="A22" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
-    <hyperlink ref="A20" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
     <hyperlink ref="A32" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
     <hyperlink ref="A33" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
     <hyperlink ref="A24" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
@@ -4222,12 +4252,13 @@
     <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
     <hyperlink ref="A34" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
     <hyperlink ref="A35" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
+    <hyperlink ref="A21" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A632-C78C-6347-8E5A-4720E264DA34}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4514,7 +4545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0168C-78E6-194A-941B-C4F6EE34E1A2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4772,6 +4803,215 @@
     <hyperlink ref="A20" r:id="rId17" display="https://leetcode.cn/problems/perfect-rectangle/solution/391-wan-mei-ju-xing-shu-xue-by-ywrx-nzcb/" xr:uid="{694FE087-F0FA-5544-BA9E-34B2B5115D74}"/>
     <hyperlink ref="A16" r:id="rId18" display="https://leetcode.cn/problems/get-kth-magic-number-lcci/solution/mian-shi-ti-1709-di-k-ge-shu-shu-xue-by-i0rvw/" xr:uid="{60A0FE99-59EB-9342-8EC9-C499A6B7D103}"/>
     <hyperlink ref="A17" r:id="rId19" display="https://leetcode.cn/problems/minimum-moves-to-equal-array-elements/solution/453-zui-xiao-cao-zuo-ci-shu-shi-shu-zu-y-jux0/" xr:uid="{7D95EC14-5D0E-2241-B657-124C5B842D1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7589A38-5576-3242-8FA0-5F40561FA4C2}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20230227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20230227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>190</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>461</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20230307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20230227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>342</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>693</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>476</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>371</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20211128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20220620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>260</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>338</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>318</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20230311</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="B2:B18" customList="E,M,H"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/single-number/solution/136-zhi-chu-xian-yi-ci-de-shu-zi-bit-by-aysss/" xr:uid="{6838D459-36E5-C44B-BFDE-C5635CA20824}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/number-of-1-bits/solution/191-wei-1de-ge-shu-by-ywrx-r1f3/" xr:uid="{9DDC3AB9-19E1-E04D-A0CB-5E28295BA66F}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://leetcode.cn/problems/missing-number/solution/268-diu-shi-de-shu-zi-bit-by-ywrx-si0w/" xr:uid="{FF558E44-4191-CB4D-8751-3009379D1378}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://leetcode.cn/problems/power-of-two/solution/231-2de-mi-bit-by-ywrx-irdd/" xr:uid="{A2EA1759-7E96-C348-A4C4-14CD318FEB9D}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://leetcode-cn.com/problems/add-binary/solution/67-er-jin-zhi-qiu-he-er-jin-zhi-by-wywy-xjbur/" xr:uid="{425415C8-27C2-7145-BA85-27F3506280BD}"/>
+    <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/is-unique-lcci/solution/pan-ding-zi-fu-shi-fou-wei-yi-bit-by-ywr-3rks/" xr:uid="{7D2F2735-0C48-B247-BFC8-1105E3BC7758}"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://leetcode.cn/problems/cinema-seat-allocation/solution/1386-an-pai-dian-ying-yuan-zuo-wei-bit-b-l08z/" xr:uid="{577E6685-B9DD-754A-8E42-A51972308DDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5109,215 +5349,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7589A38-5576-3242-8FA0-5F40561FA4C2}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20230227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20230227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>190</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>461</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20230307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20230227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>342</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>693</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>476</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>371</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20211128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20220620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>137</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>260</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>338</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>318</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20230311</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition ref="B2:B18" customList="E,M,H"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/single-number/solution/136-zhi-chu-xian-yi-ci-de-shu-zi-bit-by-aysss/" xr:uid="{6838D459-36E5-C44B-BFDE-C5635CA20824}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/number-of-1-bits/solution/191-wei-1de-ge-shu-by-ywrx-r1f3/" xr:uid="{9DDC3AB9-19E1-E04D-A0CB-5E28295BA66F}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://leetcode.cn/problems/missing-number/solution/268-diu-shi-de-shu-zi-bit-by-ywrx-si0w/" xr:uid="{FF558E44-4191-CB4D-8751-3009379D1378}"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://leetcode.cn/problems/power-of-two/solution/231-2de-mi-bit-by-ywrx-irdd/" xr:uid="{A2EA1759-7E96-C348-A4C4-14CD318FEB9D}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://leetcode-cn.com/problems/add-binary/solution/67-er-jin-zhi-qiu-he-er-jin-zhi-by-wywy-xjbur/" xr:uid="{425415C8-27C2-7145-BA85-27F3506280BD}"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/is-unique-lcci/solution/pan-ding-zi-fu-shi-fou-wei-yi-bit-by-ywr-3rks/" xr:uid="{7D2F2735-0C48-B247-BFC8-1105E3BC7758}"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://leetcode.cn/problems/cinema-seat-allocation/solution/1386-an-pai-dian-ying-yuan-zuo-wei-bit-b-l08z/" xr:uid="{577E6685-B9DD-754A-8E42-A51972308DDA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69C234-EDE8-3643-8B34-F99DBD5F82C4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5412,11 +5443,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5427,123 +5458,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
         <v>20221020</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
         <v>20230317</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
         <v>20220911</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
         <v>20220911</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
         <v>20220913</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
         <v>20220914</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>20220918</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
         <v>20221207</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
         <v>20230309</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15">
         <v>20230322</v>
       </c>
     </row>
@@ -5567,7 +5598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B14B54-A49B-D04E-8B69-DCDF1E44241B}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5577,130 +5608,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="3" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="52.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
         <v>20220908</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
         <v>20220907</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
         <v>20220908</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
         <v>20220911</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
         <v>20220911</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
         <v>20230318</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>20230212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>20220913</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>20230212</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>20230323</v>
       </c>
     </row>
@@ -5724,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F89BF6-4A8D-664D-8E62-AB0D738DFAF1}">
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -5821,7 +5852,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>328</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5841,7 +5872,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5858,7 +5889,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -5872,7 +5903,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5889,7 +5920,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5952,7 +5983,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5963,7 +5994,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5974,7 +6005,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5985,7 +6016,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>340</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6016,13 +6047,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="12"/>
-    <col min="3" max="3" width="14.6640625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="49.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="14.6640625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6819,10 +6850,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="61.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6881,7 +6912,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6892,7 +6923,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6903,7 +6934,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6914,7 +6945,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6925,7 +6956,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6936,7 +6967,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6947,7 +6978,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6958,7 +6989,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6969,7 +7000,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6980,7 +7011,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6991,7 +7022,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7002,7 +7033,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -7013,7 +7044,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7024,7 +7055,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7035,7 +7066,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7046,7 +7077,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7057,7 +7088,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7068,7 +7099,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7079,7 +7110,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7090,7 +7121,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -7101,7 +7132,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7411,10 +7442,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="11.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="61.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,7 +7526,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7506,7 +7537,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7517,7 +7548,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7539,7 +7570,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7550,7 +7581,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7561,7 +7592,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7572,7 +7603,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7583,7 +7614,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>337</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7621,86 +7652,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="3" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="52.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
         <v>20230110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
         <v>20230323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
         <v>20230109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>20220620</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>20230110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>20230316</v>
       </c>
     </row>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D824F3B-A021-394E-8B07-350F96CEE9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7AB41F-39C7-324D-A0C8-E54D1C77EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="9" activeTab="15" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="7" activeTab="8" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -26,16 +26,15 @@
     <sheet name="Divide &amp; Conquer" sheetId="11" r:id="rId11"/>
     <sheet name="DP" sheetId="12" r:id="rId12"/>
     <sheet name="Greedy" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="25" r:id="rId14"/>
-    <sheet name="Two Pointers" sheetId="14" r:id="rId15"/>
-    <sheet name="Graph" sheetId="15" r:id="rId16"/>
-    <sheet name="Backtrack" sheetId="16" r:id="rId17"/>
-    <sheet name="Math" sheetId="17" r:id="rId18"/>
-    <sheet name="Bit" sheetId="18" r:id="rId19"/>
-    <sheet name="Sliding Window" sheetId="19" r:id="rId20"/>
-    <sheet name="Simulation" sheetId="20" r:id="rId21"/>
-    <sheet name="OOD" sheetId="21" r:id="rId22"/>
-    <sheet name="Combined" sheetId="23" r:id="rId23"/>
+    <sheet name="Two Pointers" sheetId="14" r:id="rId14"/>
+    <sheet name="Graph" sheetId="15" r:id="rId15"/>
+    <sheet name="Backtrack" sheetId="16" r:id="rId16"/>
+    <sheet name="Math" sheetId="17" r:id="rId17"/>
+    <sheet name="Bit" sheetId="18" r:id="rId18"/>
+    <sheet name="Sliding Window" sheetId="19" r:id="rId19"/>
+    <sheet name="Simulation" sheetId="20" r:id="rId20"/>
+    <sheet name="OOD" sheetId="21" r:id="rId21"/>
+    <sheet name="Combined" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="360">
   <si>
     <t>#</t>
   </si>
@@ -1106,6 +1105,36 @@
   </si>
   <si>
     <t>1293 网格中的最短路径</t>
+  </si>
+  <si>
+    <t>366 寻找二叉树的叶子结点</t>
+  </si>
+  <si>
+    <t>2034 股票价格波动</t>
+  </si>
+  <si>
+    <t>359 日志速率限制器</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>843 猜猜这个单词</t>
+  </si>
+  <si>
+    <t>2013 检测正方形</t>
+  </si>
+  <si>
+    <t>1937 扣分后的最大得分</t>
+  </si>
+  <si>
+    <t>2018 判断单词是否能放入填字游戏内</t>
+  </si>
+  <si>
+    <t>2178 拆分成最多数目的正偶数之和</t>
+  </si>
+  <si>
+    <t>729 我的日程安排表</t>
   </si>
 </sst>
 </file>
@@ -1323,15 +1352,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2008,236 +2035,236 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87904762-BFEC-434E-9C53-A84DD8444479}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>69</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>744</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>278</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>704</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
         <v>20221221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>540</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>20221228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
         <v>20220823</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>74</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>81</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>20220823</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20220925</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>20220927</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20221219</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20221220</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>154</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="C20" s="15">
         <v>20220911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
+        <v>20230327</v>
       </c>
     </row>
   </sheetData>
@@ -2248,13 +2275,13 @@
     <hyperlink ref="A8" r:id="rId1" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/solution/153-xun-zhao-xuan-zhuan-pai-xu-shu-zu-zh-mjkr/" xr:uid="{97C09881-DE85-2B4C-B24D-348592E7CADD}"/>
     <hyperlink ref="A9" r:id="rId2" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/solution/by-wywy-m-brqf/" xr:uid="{F885C336-C7F0-F340-B8B7-CDDAB9EDFAFA}"/>
     <hyperlink ref="A6" r:id="rId3" display="https://leetcode.cn/problems/search-insert-position/solution/35-by-wywy-m-upza/" xr:uid="{1BC04EE0-72B5-1849-ABC0-0DD006726EE2}"/>
-    <hyperlink ref="A19" r:id="rId4" display="https://leetcode-cn.com/problems/sliding-window-median/solution/480-hua-dong-chuang-kou-zhong-wei-shu-er-p3wx/" xr:uid="{962402DE-6ABF-E646-A2BD-A663C8AEFA25}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://leetcode.cn/problems/capacity-to-ship-packages-within-d-days/solution/by-wywy-m-9h37/" xr:uid="{7DFC3645-7076-B449-B401-7A66BFC435D5}"/>
-    <hyperlink ref="A20" r:id="rId6" display="https://leetcode.cn/problems/number-of-ships-in-a-rectangle/solution/-by-wywy-m-cpzm/" xr:uid="{6D6D6573-2537-0946-B1F1-76DDC4C7E142}"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://leetcode.cn/problems/find-peak-element/solution/162-by-wywy-m-ca3f/" xr:uid="{A49B9F11-F12D-8348-98A9-1EAEACC53A17}"/>
-    <hyperlink ref="A15" r:id="rId8" display="https://leetcode.cn/problems/random-pick-with-weight/solution/by-wywy-m-otok/" xr:uid="{D52C6791-5ACF-4D45-B991-476C93EEDE33}"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://leetcode.cn/problems/koko-eating-bananas/solution/-by-wywy-m-rgk4/" xr:uid="{2F79CBF3-CB9F-864B-9FA3-38F48A500C74}"/>
-    <hyperlink ref="A17" r:id="rId10" display="https://leetcode.cn/problems/peak-index-in-a-mountain-array/solution/-by-wywy-m-t5nn/" xr:uid="{F4141991-EED2-FD48-AA1B-BDDE998DEF52}"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://leetcode.cn/problems/capacity-to-ship-packages-within-d-days/solution/by-wywy-m-9h37/" xr:uid="{7DFC3645-7076-B449-B401-7A66BFC435D5}"/>
+    <hyperlink ref="A20" r:id="rId5" display="https://leetcode.cn/problems/number-of-ships-in-a-rectangle/solution/-by-wywy-m-cpzm/" xr:uid="{6D6D6573-2537-0946-B1F1-76DDC4C7E142}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://leetcode.cn/problems/find-peak-element/solution/162-by-wywy-m-ca3f/" xr:uid="{A49B9F11-F12D-8348-98A9-1EAEACC53A17}"/>
+    <hyperlink ref="A15" r:id="rId7" display="https://leetcode.cn/problems/random-pick-with-weight/solution/by-wywy-m-otok/" xr:uid="{D52C6791-5ACF-4D45-B991-476C93EEDE33}"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://leetcode.cn/problems/koko-eating-bananas/solution/-by-wywy-m-rgk4/" xr:uid="{2F79CBF3-CB9F-864B-9FA3-38F48A500C74}"/>
+    <hyperlink ref="A17" r:id="rId9" display="https://leetcode.cn/problems/peak-index-in-a-mountain-array/solution/-by-wywy-m-t5nn/" xr:uid="{F4141991-EED2-FD48-AA1B-BDDE998DEF52}"/>
+    <hyperlink ref="A21" r:id="rId10" xr:uid="{75D8F9F4-19F7-E547-8B84-32E6DC195CCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2387,18 +2414,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="19" style="22" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="53.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,7 +3012,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="16" t="s">
         <v>341</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -2996,7 +3023,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="16" t="s">
         <v>348</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -3004,6 +3031,17 @@
       </c>
       <c r="C55" s="18">
         <v>20230324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="18">
+        <v>20230326</v>
       </c>
     </row>
   </sheetData>
@@ -3053,6 +3091,7 @@
     <hyperlink ref="A53" r:id="rId40" display="https://leetcode.cn/problems/maximum-number-of-books-you-can-take/solution/2355-ni-neng-na-zou-de-zui-da-tu-shu-shu-4cwe/" xr:uid="{CFA00C0F-A1B9-2143-9567-C1D46DE839B4}"/>
     <hyperlink ref="A54" r:id="rId41" xr:uid="{143774B1-1CB5-584A-A7EA-EFB7FAE785C2}"/>
     <hyperlink ref="A55" r:id="rId42" xr:uid="{9CE5EBF7-DFF5-8C4C-800C-035221F3521C}"/>
+    <hyperlink ref="A56" r:id="rId43" xr:uid="{2EEACA1F-B9C2-F445-AAC2-8786A0BEB3E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3060,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E45454-ABB5-A740-839B-4BC8D58C720C}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A1:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3446,6 +3485,17 @@
       </c>
       <c r="C34" s="15">
         <v>20230323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="15">
+        <v>20230327</v>
       </c>
     </row>
   </sheetData>
@@ -3478,24 +3528,13 @@
     <hyperlink ref="A32" r:id="rId23" xr:uid="{E830922D-631C-A841-A908-BE96CF32A7D9}"/>
     <hyperlink ref="A33" r:id="rId24" xr:uid="{1BB1A7DC-260F-5547-A272-B29B3C31BC6A}"/>
     <hyperlink ref="A34" r:id="rId25" xr:uid="{C5B8642E-3DE7-F146-81F2-3585047BA96A}"/>
+    <hyperlink ref="A35" r:id="rId26" xr:uid="{215CC94D-85D2-5645-8285-6148AA47DB95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793BCECD-8B46-DA42-B72E-66FE64C4766E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F31A8D-9C09-434F-A40A-68C34FD0E968}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -3819,11 +3858,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4070,7 +4109,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="18"/>
@@ -4258,7 +4297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A632-C78C-6347-8E5A-4720E264DA34}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -4545,238 +4584,256 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0168C-78E6-194A-941B-C4F6EE34E1A2}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
         <v>20221129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
         <v>20220925</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
         <v>20221219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
         <v>20230225</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
         <v>20221129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
         <v>20221219</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
         <v>20220912</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
         <v>20221010</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
         <v>20221213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15">
         <v>20221220</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
         <v>20230225</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>20230225</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20230226</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>20230226</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20230308</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20230312</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="15">
         <v>20220726</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="15">
         <v>20220913</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="15">
         <v>20230227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15">
+        <v>20230326</v>
       </c>
     </row>
   </sheetData>
@@ -4803,12 +4860,13 @@
     <hyperlink ref="A20" r:id="rId17" display="https://leetcode.cn/problems/perfect-rectangle/solution/391-wan-mei-ju-xing-shu-xue-by-ywrx-nzcb/" xr:uid="{694FE087-F0FA-5544-BA9E-34B2B5115D74}"/>
     <hyperlink ref="A16" r:id="rId18" display="https://leetcode.cn/problems/get-kth-magic-number-lcci/solution/mian-shi-ti-1709-di-k-ge-shu-shu-xue-by-i0rvw/" xr:uid="{60A0FE99-59EB-9342-8EC9-C499A6B7D103}"/>
     <hyperlink ref="A17" r:id="rId19" display="https://leetcode.cn/problems/minimum-moves-to-equal-array-elements/solution/453-zui-xiao-cao-zuo-ci-shu-shi-shu-zu-y-jux0/" xr:uid="{7D95EC14-5D0E-2241-B657-124C5B842D1A}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{C4A1BF58-7EB0-E04E-A4D3-133088260C64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7589A38-5576-3242-8FA0-5F40561FA4C2}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -5012,6 +5070,101 @@
     <hyperlink ref="A12" r:id="rId5" display="https://leetcode-cn.com/problems/add-binary/solution/67-er-jin-zhi-qiu-he-er-jin-zhi-by-wywy-xjbur/" xr:uid="{425415C8-27C2-7145-BA85-27F3506280BD}"/>
     <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/is-unique-lcci/solution/pan-ding-zi-fu-shi-fou-wei-yi-bit-by-ywr-3rks/" xr:uid="{7D2F2735-0C48-B247-BFC8-1105E3BC7758}"/>
     <hyperlink ref="A18" r:id="rId7" display="https://leetcode.cn/problems/cinema-seat-allocation/solution/1386-an-pai-dian-ying-yuan-zuo-wei-bit-b-l08z/" xr:uid="{577E6685-B9DD-754A-8E42-A51972308DDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69C234-EDE8-3643-8B34-F99DBD5F82C4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20220823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20220823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20220823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20220925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20220823</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition ref="B2:B6" customList="E,M,H"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="https://leetcode.cn/problems/minimum-window-substring/solution/-by-wywy-m-4hkf/" xr:uid="{586C3D79-F444-EE44-AE54-56E600B621B0}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.cn/problems/permutation-in-string/solution/567-zi-fu-chuan-de-pai-lie-by-wywy-m-q1ts/" xr:uid="{2517D657-6FDF-2C42-B7E5-78624A2E7708}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/submissions/" xr:uid="{EBF4977C-672D-CA4A-A9C6-B64D0B827A2F}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/solution/3-wu-zhong-fu-zi-fu-chuan-de-zui-chang-z-fkie/" xr:uid="{D10DC5BA-2CF7-7C43-A026-3D3D46E2FF79}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.cn/problems/longest-repeating-character-replacement/solution/424-ti-huan-hou-de-zui-chang-zhong-fu-zi-djg2/" xr:uid="{F2FA77A7-AA80-3243-B2BC-2B7820F310A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5349,111 +5502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69C234-EDE8-3643-8B34-F99DBD5F82C4}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20220925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20220823</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
-    <sortCondition ref="B2:B6" customList="E,M,H"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://leetcode.cn/problems/minimum-window-substring/solution/-by-wywy-m-4hkf/" xr:uid="{586C3D79-F444-EE44-AE54-56E600B621B0}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.cn/problems/permutation-in-string/solution/567-zi-fu-chuan-de-pai-lie-by-wywy-m-q1ts/" xr:uid="{2517D657-6FDF-2C42-B7E5-78624A2E7708}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/submissions/" xr:uid="{EBF4977C-672D-CA4A-A9C6-B64D0B827A2F}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/solution/3-wu-zhong-fu-zi-fu-chuan-de-zui-chang-z-fkie/" xr:uid="{D10DC5BA-2CF7-7C43-A026-3D3D46E2FF79}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.cn/problems/longest-repeating-character-replacement/solution/424-ti-huan-hou-de-zui-chang-zhong-fu-zi-djg2/" xr:uid="{F2FA77A7-AA80-3243-B2BC-2B7820F310A2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5576,6 +5634,17 @@
       </c>
       <c r="C11" s="15">
         <v>20230322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>20230327</v>
       </c>
     </row>
   </sheetData>
@@ -5593,12 +5662,13 @@
     <hyperlink ref="A10" r:id="rId8" display="https://leetcode.cn/problems/find-missing-observations/solution/2028-zhao-chu-que-shi-de-guan-ce-shu-ju-wagg4/" xr:uid="{1345FCC1-8DF4-7B4D-856A-79217DE8026F}"/>
     <hyperlink ref="A3" r:id="rId9" display="https://leetcode.cn/problems/find-n-unique-integers-sum-up-to-zero/solution/1304-he-wei-ling-de-n-ge-bu-tong-zheng-s-oi7x/" xr:uid="{E5523D15-7AF9-B043-A0B1-6976D5C2D31D}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{19B31EC3-C3AB-A540-AA50-BC43CAFAAB4E}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{8FD603C7-23F2-7B4E-A68C-A318C10DFFAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B14B54-A49B-D04E-8B69-DCDF1E44241B}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5755,7 +5825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F89BF6-4A8D-664D-8E62-AB0D738DFAF1}">
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -5780,37 +5850,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="4" t="s">
         <v>334</v>
       </c>
@@ -6039,502 +6109,513 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9675C-39F8-DD4C-B84E-2CBC8BF054BB}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="65.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="11"/>
     <col min="3" max="3" width="14.6640625" style="11" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
         <v>20230213</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>543</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>226</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>617</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>112</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>572</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>101</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
         <v>20230220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>404</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>687</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>671</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>637</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15">
         <v>20230213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15">
         <v>20230213</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15">
         <v>20230213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20230214</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20230314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>337</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>513</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>144</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15">
         <v>20220814</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15">
         <v>20220824</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
         <v>20220824</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
         <v>20220824</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15">
         <v>20220824</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15">
         <v>20220824</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
         <v>20220905</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
         <v>20220913</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15">
         <v>20220926</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15">
         <v>20220927</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="15">
         <v>20230213</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15">
         <v>20230214</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="15">
         <v>20230214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="15">
         <v>20230319</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="15">
         <v>20230319</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
         <v>145</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="C38" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
         <v>1028</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C39" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="15">
         <v>20220927</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="15">
         <v>20220913</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="15">
         <v>20220925</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="15">
         <v>20230214</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="18">
         <v>20230322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="18">
+        <v>20230325</v>
       </c>
     </row>
   </sheetData>
@@ -6569,6 +6650,7 @@
     <hyperlink ref="A36" r:id="rId25" xr:uid="{AA8650A6-4615-7A48-AF6E-58593930E8BC}"/>
     <hyperlink ref="A37" r:id="rId26" xr:uid="{7EFDD8E6-A5D9-D243-BF9C-174B93993794}"/>
     <hyperlink ref="A44" r:id="rId27" xr:uid="{CC14A0A8-50CC-D847-829E-993E8EF49BDF}"/>
+    <hyperlink ref="A45" r:id="rId28" xr:uid="{3524C6A1-4A90-054F-AC10-D37588A6DB15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6842,304 +6924,326 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38DCB7-D208-4A47-A52C-374E9CD57FFC}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="75.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="9" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>217</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>594</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>242</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
         <v>20220626</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
         <v>20220917</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
         <v>12.18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
         <v>12.27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15">
         <v>20220623</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
         <v>20220911</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
         <v>20220913</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
         <v>20220918</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
         <v>20220918</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
         <v>20220927</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
         <v>20221010</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
         <v>20230312</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
         <v>20230314</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
         <v>20230316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
         <v>20230318</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="15">
         <v>20220919</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="15">
         <v>20220920</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="15">
         <v>20230212</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="15">
         <v>20230212</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
         <v>20230321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>20230325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>20230326</v>
       </c>
     </row>
   </sheetData>
@@ -7168,6 +7272,8 @@
     <hyperlink ref="A20" r:id="rId19" display="https://leetcode.cn/problems/minimum-number-of-keypresses/solution/2268-zui-shao-an-jian-ci-shu-hashmap-by-dowte/" xr:uid="{8ABFAC54-A220-2641-90E7-B808D0CA0F1E}"/>
     <hyperlink ref="A21" r:id="rId20" display="https://leetcode.cn/problems/maximal-network-rank/solution/1615-zui-da-wang-luo-zhi-hash-by-ywrx-xbkk/" xr:uid="{0222E21B-5E2A-A749-805E-180C098BF0E8}"/>
     <hyperlink ref="A26" r:id="rId21" xr:uid="{B1E177DD-FD5A-4348-965A-48AFFA38F669}"/>
+    <hyperlink ref="A27" r:id="rId22" xr:uid="{9FAECA00-4CB3-5E4C-8E05-9C17ECD83DDF}"/>
+    <hyperlink ref="A28" r:id="rId23" xr:uid="{30A2B5A7-1793-D846-9A1F-B579B41E0CEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7644,10 +7750,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA87E2-0C96-3045-BD9E-C5C85205F434}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -7735,6 +7841,28 @@
         <v>20230316</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>20230325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15">
+        <v>20230327</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="B2:B7" customList="E,M,H"/>
@@ -7746,6 +7874,8 @@
     <hyperlink ref="A2" r:id="rId4" display="https://leetcode.cn/problems/kth-largest-element-in-a-stream/solution/703-shu-ju-liu-zhong-de-di-by-wywy-m-nxnu/" xr:uid="{1E7C1BB8-783E-5041-ADA7-51127C3F71E7}"/>
     <hyperlink ref="A6" r:id="rId5" display="https://leetcode.cn/problems/find-median-from-data-stream/solution/-by-wywy-m-1paq/" xr:uid="{D3579325-3524-7843-BDB0-9D2510D1A33C}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://leetcode.cn/problems/maximum-number-of-robots-within-budget/solution/2398-yu-suan-nei-de-zui-duo-ji-qi-ren-sh-c2r7/" xr:uid="{3E7F95E0-F88B-8B4E-BB5A-48442AB5849A}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{CFD18935-3DE1-7247-9859-1F5FFA29B74F}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/sliding-window-median/solution/480-hua-dong-chuang-kou-zhong-wei-shu-er-p3wx/" xr:uid="{962402DE-6ABF-E646-A2BD-A663C8AEFA25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7AB41F-39C7-324D-A0C8-E54D1C77EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2B7F4-CBB5-FC43-B3B2-6DA226D6F145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="7" activeTab="8" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="4" activeTab="5" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="367">
   <si>
     <t>#</t>
   </si>
@@ -1135,6 +1135,27 @@
   </si>
   <si>
     <t>729 我的日程安排表</t>
+  </si>
+  <si>
+    <t>1048 最长字符串链</t>
+  </si>
+  <si>
+    <t>2115 从给定原材料中找出所有可以做出的菜</t>
+  </si>
+  <si>
+    <t>715 range模块</t>
+  </si>
+  <si>
+    <t>1101 彼此熟识的最早时间</t>
+  </si>
+  <si>
+    <t>562 矩阵中最长的连续1线段</t>
+  </si>
+  <si>
+    <t>1055 形成字符串的最短路径</t>
+  </si>
+  <si>
+    <t>1146 快照数组</t>
   </si>
 </sst>
 </file>
@@ -2037,17 +2058,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87904762-BFEC-434E-9C53-A84DD8444479}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="A19:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>69</v>
       </c>
@@ -2069,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>744</v>
       </c>
@@ -2080,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>278</v>
       </c>
@@ -2091,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>704</v>
       </c>
@@ -2102,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>35</v>
       </c>
@@ -2113,7 +2136,7 @@
         <v>20221221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>540</v>
       </c>
@@ -2124,7 +2147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>124</v>
       </c>
@@ -2135,7 +2158,7 @@
         <v>20221228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>125</v>
       </c>
@@ -2146,7 +2169,7 @@
         <v>20220823</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>74</v>
       </c>
@@ -2157,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>33</v>
       </c>
@@ -2168,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>81</v>
       </c>
@@ -2179,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>127</v>
       </c>
@@ -2190,7 +2213,7 @@
         <v>20220823</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>129</v>
       </c>
@@ -2201,7 +2224,7 @@
         <v>20220925</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>130</v>
       </c>
@@ -2209,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="15">
-        <v>20220927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+        <v>20230330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>131</v>
       </c>
@@ -2223,7 +2246,7 @@
         <v>20221219</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>132</v>
       </c>
@@ -2234,7 +2257,7 @@
         <v>20221220</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>154</v>
       </c>
@@ -2245,43 +2268,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>128</v>
       </c>
+      <c r="B19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="15">
+        <v>20220911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>359</v>
+      </c>
       <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15">
+        <v>20230327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15">
-        <v>20220911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" s="15">
-        <v>20230327</v>
+        <v>20230328</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
-    <sortCondition ref="B2:B20" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="B2:B19" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/solution/153-xun-zhao-xuan-zhuan-pai-xu-shu-zu-zh-mjkr/" xr:uid="{97C09881-DE85-2B4C-B24D-348592E7CADD}"/>
     <hyperlink ref="A9" r:id="rId2" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/solution/by-wywy-m-brqf/" xr:uid="{F885C336-C7F0-F340-B8B7-CDDAB9EDFAFA}"/>
     <hyperlink ref="A6" r:id="rId3" display="https://leetcode.cn/problems/search-insert-position/solution/35-by-wywy-m-upza/" xr:uid="{1BC04EE0-72B5-1849-ABC0-0DD006726EE2}"/>
     <hyperlink ref="A13" r:id="rId4" display="https://leetcode.cn/problems/capacity-to-ship-packages-within-d-days/solution/by-wywy-m-9h37/" xr:uid="{7DFC3645-7076-B449-B401-7A66BFC435D5}"/>
-    <hyperlink ref="A20" r:id="rId5" display="https://leetcode.cn/problems/number-of-ships-in-a-rectangle/solution/-by-wywy-m-cpzm/" xr:uid="{6D6D6573-2537-0946-B1F1-76DDC4C7E142}"/>
+    <hyperlink ref="A19" r:id="rId5" display="https://leetcode.cn/problems/number-of-ships-in-a-rectangle/solution/-by-wywy-m-cpzm/" xr:uid="{6D6D6573-2537-0946-B1F1-76DDC4C7E142}"/>
     <hyperlink ref="A14" r:id="rId6" display="https://leetcode.cn/problems/find-peak-element/solution/162-by-wywy-m-ca3f/" xr:uid="{A49B9F11-F12D-8348-98A9-1EAEACC53A17}"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://leetcode.cn/problems/random-pick-with-weight/solution/by-wywy-m-otok/" xr:uid="{D52C6791-5ACF-4D45-B991-476C93EEDE33}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{D52C6791-5ACF-4D45-B991-476C93EEDE33}"/>
     <hyperlink ref="A16" r:id="rId8" display="https://leetcode.cn/problems/koko-eating-bananas/solution/-by-wywy-m-rgk4/" xr:uid="{2F79CBF3-CB9F-864B-9FA3-38F48A500C74}"/>
     <hyperlink ref="A17" r:id="rId9" display="https://leetcode.cn/problems/peak-index-in-a-mountain-array/solution/-by-wywy-m-t5nn/" xr:uid="{F4141991-EED2-FD48-AA1B-BDDE998DEF52}"/>
-    <hyperlink ref="A21" r:id="rId10" xr:uid="{75D8F9F4-19F7-E547-8B84-32E6DC195CCE}"/>
+    <hyperlink ref="A20" r:id="rId10" xr:uid="{75D8F9F4-19F7-E547-8B84-32E6DC195CCE}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{B6228B73-C7EF-C847-B5B7-AAE94E9E74E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2414,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3042,6 +3077,28 @@
       </c>
       <c r="C56" s="18">
         <v>20230326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="18">
+        <v>20230328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="18">
+        <v>20230330</v>
       </c>
     </row>
   </sheetData>
@@ -3092,6 +3149,8 @@
     <hyperlink ref="A54" r:id="rId41" xr:uid="{143774B1-1CB5-584A-A7EA-EFB7FAE785C2}"/>
     <hyperlink ref="A55" r:id="rId42" xr:uid="{9CE5EBF7-DFF5-8C4C-800C-035221F3521C}"/>
     <hyperlink ref="A56" r:id="rId43" xr:uid="{2EEACA1F-B9C2-F445-AAC2-8786A0BEB3E0}"/>
+    <hyperlink ref="A57" r:id="rId44" xr:uid="{286CC1FD-7E03-5749-92A5-A0A9607D8F81}"/>
+    <hyperlink ref="A58" r:id="rId45" xr:uid="{044A2DB8-AE62-4444-8E98-6D605D3D8BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3860,15 +3919,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="70.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="4"/>
     <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="4"/>
@@ -3970,198 +4029,198 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>20230328</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="15">
-        <v>1</v>
+        <v>20230329</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
+      <c r="A12" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="15">
-        <v>20220612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>229</v>
+      <c r="A14" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="15">
-        <v>20220912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="15">
-        <v>20220914</v>
+        <v>20220612</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="15">
-        <v>20220917</v>
+        <v>20220912</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="15">
-        <v>20220926</v>
+        <v>20220914</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="15">
-        <v>20221020</v>
+        <v>20220917</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="15">
-        <v>20230220</v>
+        <v>20220926</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="15">
-        <v>20221018</v>
+        <v>20221020</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="15">
-        <v>20230324</v>
+        <v>20230220</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="15">
-        <v>20230220</v>
+        <v>20221018</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15">
+        <v>20230324</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C24" s="15">
-        <v>20220925</v>
+        <v>20230220</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
-        <v>20230219</v>
-      </c>
+      <c r="A25" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="15">
-        <v>20220906</v>
+        <v>20220925</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="15">
-        <v>20220906</v>
+        <v>20230219</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -4172,7 +4231,7 @@
     </row>
     <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -4183,7 +4242,7 @@
     </row>
     <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -4194,7 +4253,7 @@
     </row>
     <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -4205,61 +4264,83 @@
     </row>
     <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32" s="15">
-        <v>20220913</v>
+        <v>20220906</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" s="15">
-        <v>20220923</v>
+        <v>20220906</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="15">
-        <v>20230308</v>
+        <v>20220913</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="15">
+        <v>20220923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="15">
+        <v>20230308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="15">
         <v>20230319</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C22">
-    <sortCondition ref="B11:B22" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C24">
+    <sortCondition ref="B13:B24" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://leetcode.cn/problems/all-paths-from-source-to-target/solution/by-wywy-m-nqp0/" xr:uid="{62AA1BDA-9AEF-1D4E-985F-E4BFC300F9ED}"/>
@@ -4269,29 +4350,31 @@
     <hyperlink ref="A7" r:id="rId5" display="https://leetcode.cn/problems/course-schedule-ii/solution/210-ke-cheng-biao-iigraph-by-wywy-m-18nk/" xr:uid="{C7EEFC8F-2387-F14A-B36C-A22ACD69ECCB}"/>
     <hyperlink ref="A8" r:id="rId6" display="https://leetcode.cn/problems/network-delay-time/solution/743-wang-luo-yan-chi-shi-jian-dijkstra-b-6zyo/" xr:uid="{FC2F7E70-70B6-EC40-83E9-F14EEDE1A2B2}"/>
     <hyperlink ref="A9" r:id="rId7" display="https://leetcode.cn/problems/min-cost-to-connect-all-points/solution/1584-lian-jie-suo-you-dian-de-zui-xiao-f-dtmy/" xr:uid="{D6E252E8-6A56-B449-917D-D9191B43E8F1}"/>
-    <hyperlink ref="A11" r:id="rId8" display="https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/solution/1091-er-jin-zhi-ju-zhen-zui-duan-lu-jing-00dr/" xr:uid="{678CC0D2-5BB2-9447-A9D9-85A1922DAD7A}"/>
-    <hyperlink ref="A13" r:id="rId9" display="https://leetcode.cn/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution/-by-wywy-m-hks2/" xr:uid="{433B27C5-3ADF-6344-8B10-3C6FE890D909}"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://leetcode.cn/problems/web-crawler/solution/by-wywy-m-tq5x/" xr:uid="{1096138D-EBE2-324D-A769-E0CF4843CC45}"/>
-    <hyperlink ref="A15" r:id="rId11" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/solution/117-by-wywy-m-2dey/" xr:uid="{DB4092D2-CEB5-5F40-9A2F-A3D1F3E1FAD5}"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://leetcode.cn/problems/evaluate-division/solution/by-wywy-m-fqcc/" xr:uid="{3BA99F54-D69C-BE40-BD52-19CC44580857}"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://leetcode.cn/problems/walls-and-gates/solution/286-by-wywy-m-v89r/" xr:uid="{A1807D7E-F45A-BC4D-A674-450FE3CC3465}"/>
-    <hyperlink ref="A20" r:id="rId14" display="https://leetcode.cn/problems/shortest-distance-from-all-buildings/solution/317-by-wywy-m-31q4/" xr:uid="{7C3F06B2-F6CE-D941-A3E6-9CC13D48726B}"/>
-    <hyperlink ref="A18" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
-    <hyperlink ref="A22" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
-    <hyperlink ref="A32" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
-    <hyperlink ref="A33" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
-    <hyperlink ref="A24" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
-    <hyperlink ref="A25" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
-    <hyperlink ref="A26" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
-    <hyperlink ref="A27" r:id="rId22" display="https://leetcode.cn/problems/number-of-closed-islands/solution/1254-tong-ji-feng-bi-by-wywy-m-qc5d/" xr:uid="{7F2AB7CB-072B-9448-BB8B-4B7470CEC5CE}"/>
-    <hyperlink ref="A28" r:id="rId23" display="https://leetcode.cn/problems/number-of-enclaves/solution/1020-fei-di-by-wywy-m-n8fe/" xr:uid="{BACB5764-3CC5-A84C-8DC0-4FD405B3E874}"/>
-    <hyperlink ref="A29" r:id="rId24" display="https://leetcode.cn/problems/max-area-of-island/solution/695-by-wywy-m-iuv4/" xr:uid="{17FBEAD3-6BD2-B54B-AFE1-BCD179AE4565}"/>
-    <hyperlink ref="A30" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
-    <hyperlink ref="A31" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
-    <hyperlink ref="A34" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
-    <hyperlink ref="A35" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
-    <hyperlink ref="A21" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
+    <hyperlink ref="A13" r:id="rId8" display="https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/solution/1091-er-jin-zhi-ju-zhen-zui-duan-lu-jing-00dr/" xr:uid="{678CC0D2-5BB2-9447-A9D9-85A1922DAD7A}"/>
+    <hyperlink ref="A15" r:id="rId9" display="https://leetcode.cn/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution/-by-wywy-m-hks2/" xr:uid="{433B27C5-3ADF-6344-8B10-3C6FE890D909}"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://leetcode.cn/problems/web-crawler/solution/by-wywy-m-tq5x/" xr:uid="{1096138D-EBE2-324D-A769-E0CF4843CC45}"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/solution/117-by-wywy-m-2dey/" xr:uid="{DB4092D2-CEB5-5F40-9A2F-A3D1F3E1FAD5}"/>
+    <hyperlink ref="A18" r:id="rId12" display="https://leetcode.cn/problems/evaluate-division/solution/by-wywy-m-fqcc/" xr:uid="{3BA99F54-D69C-BE40-BD52-19CC44580857}"/>
+    <hyperlink ref="A19" r:id="rId13" display="https://leetcode.cn/problems/walls-and-gates/solution/286-by-wywy-m-v89r/" xr:uid="{A1807D7E-F45A-BC4D-A674-450FE3CC3465}"/>
+    <hyperlink ref="A22" r:id="rId14" display="https://leetcode.cn/problems/shortest-distance-from-all-buildings/solution/317-by-wywy-m-31q4/" xr:uid="{7C3F06B2-F6CE-D941-A3E6-9CC13D48726B}"/>
+    <hyperlink ref="A20" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
+    <hyperlink ref="A24" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
+    <hyperlink ref="A21" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
+    <hyperlink ref="A34" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
+    <hyperlink ref="A35" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
+    <hyperlink ref="A26" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
+    <hyperlink ref="A27" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
+    <hyperlink ref="A28" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
+    <hyperlink ref="A29" r:id="rId22" display="https://leetcode.cn/problems/number-of-closed-islands/solution/1254-tong-ji-feng-bi-by-wywy-m-qc5d/" xr:uid="{7F2AB7CB-072B-9448-BB8B-4B7470CEC5CE}"/>
+    <hyperlink ref="A30" r:id="rId23" display="https://leetcode.cn/problems/number-of-enclaves/solution/1020-fei-di-by-wywy-m-n8fe/" xr:uid="{BACB5764-3CC5-A84C-8DC0-4FD405B3E874}"/>
+    <hyperlink ref="A31" r:id="rId24" display="https://leetcode.cn/problems/max-area-of-island/solution/695-by-wywy-m-iuv4/" xr:uid="{17FBEAD3-6BD2-B54B-AFE1-BCD179AE4565}"/>
+    <hyperlink ref="A32" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
+    <hyperlink ref="A33" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
+    <hyperlink ref="A36" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
+    <hyperlink ref="A37" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
+    <hyperlink ref="A23" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
+    <hyperlink ref="A10" r:id="rId30" xr:uid="{0E22DCEF-0BC9-3444-97D4-2AB1C84A8351}"/>
+    <hyperlink ref="A11" r:id="rId31" xr:uid="{287B3E6D-9056-694F-B287-0EF92D0296AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4588,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0168C-78E6-194A-941B-C4F6EE34E1A2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6924,17 +7007,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38DCB7-D208-4A47-A52C-374E9CD57FFC}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="9" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
@@ -7214,7 +7297,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>336</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -7225,25 +7308,47 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
         <v>20230325</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18">
         <v>20230326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18">
+        <v>20230401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="18">
+        <v>20230401</v>
       </c>
     </row>
   </sheetData>
@@ -7274,6 +7379,8 @@
     <hyperlink ref="A26" r:id="rId21" xr:uid="{B1E177DD-FD5A-4348-965A-48AFFA38F669}"/>
     <hyperlink ref="A27" r:id="rId22" xr:uid="{9FAECA00-4CB3-5E4C-8E05-9C17ECD83DDF}"/>
     <hyperlink ref="A28" r:id="rId23" xr:uid="{30A2B5A7-1793-D846-9A1F-B579B41E0CEF}"/>
+    <hyperlink ref="A29" r:id="rId24" xr:uid="{209BED91-FED1-E344-83AE-DBA906F973B8}"/>
+    <hyperlink ref="A30" r:id="rId25" xr:uid="{A7409944-9E1F-4543-B4B4-9D8AF255C01E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7752,7 +7859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA87E2-0C96-3045-BD9E-C5C85205F434}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2B7F4-CBB5-FC43-B3B2-6DA226D6F145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE95B5-DB1D-5E4C-9C92-181F108370BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="4" activeTab="5" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="5" activeTab="5" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Simulation" sheetId="20" r:id="rId20"/>
     <sheet name="OOD" sheetId="21" r:id="rId21"/>
     <sheet name="Combined" sheetId="23" r:id="rId22"/>
+    <sheet name="Recursion" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="387">
   <si>
     <t>#</t>
   </si>
@@ -1156,22 +1157,74 @@
   </si>
   <si>
     <t>1146 快照数组</t>
+  </si>
+  <si>
+    <t>408 有效单词缩写</t>
+  </si>
+  <si>
+    <t>1650 二叉树的最近公共祖先III·</t>
+  </si>
+  <si>
+    <t>273 整数转换英文表示</t>
+  </si>
+  <si>
+    <t>剑指offer6 逆序打印链表</t>
+  </si>
+  <si>
+    <t>剑指offer26</t>
+  </si>
+  <si>
+    <t>339 嵌套列表权重和</t>
+  </si>
+  <si>
+    <t>249 位移字符串分组</t>
+  </si>
+  <si>
+    <t>708 循环有序列表的插入</t>
+  </si>
+  <si>
+    <t>791 自定义字符串排序</t>
+  </si>
+  <si>
+    <t>346 数据流中的移动平均值</t>
+  </si>
+  <si>
+    <t>362 敲击计数器</t>
+  </si>
+  <si>
+    <t>772 基本计算器III</t>
+  </si>
+  <si>
+    <t>1175 质数排列</t>
+  </si>
+  <si>
+    <t>284 顶端迭代器</t>
+  </si>
+  <si>
+    <t>996 正方形数组的数目</t>
+  </si>
+  <si>
+    <t>730 统计不同回文子序列</t>
+  </si>
+  <si>
+    <t>1658 将x减小到0的最小操作数</t>
+  </si>
+  <si>
+    <t>629 K个逆序对数组</t>
+  </si>
+  <si>
+    <t>13 罗马数字转整数</t>
+  </si>
+  <si>
+    <t>916 单词子集</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1225,23 +1278,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1291,13 +1329,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="20"/>
       <color theme="10"/>
@@ -1325,15 +1356,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1342,43 +1375,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1704,325 +1726,325 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="58.83203125" style="14"/>
+    <col min="1" max="16384" width="58.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>283</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>566</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>485</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>645</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>697</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
         <v>20220918</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
         <v>20220917</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>240</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>378</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>287</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>667</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="11">
         <v>565</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20220919</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20220620</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20220625</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20220822</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
         <v>20220822</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>20220822</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
         <v>20220922</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11">
         <v>20221213</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
         <v>20230315</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11">
         <v>20221229</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
         <v>20221230</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11">
         <v>20221231</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11">
         <v>20221231</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="11">
         <v>20211229</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11">
         <v>20230323</v>
       </c>
     </row>
@@ -2064,240 +2086,240 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="77.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>69</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>744</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>278</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>704</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="12">
         <v>35</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
         <v>20221221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="11">
         <v>540</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>20221228</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
         <v>20220823</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>74</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>33</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>81</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>20220823</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20220925</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>20230330</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20221219</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20221220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="11">
         <v>154</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>20220911</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>20230327</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>20230328</v>
       </c>
     </row>
@@ -2337,97 +2359,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>241</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>20220619</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>20220922</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>20221129</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>20220620</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>20220825</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>20220825</v>
       </c>
     </row>
@@ -2449,656 +2471,678 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="19" style="21" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="53.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19" style="14" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>70</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>303</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
         <v>20220829</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
         <v>20220829</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>20220829</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>62</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="11">
         <v>413</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>343</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="11">
         <v>279</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>20220826</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="11">
         <v>646</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>376</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>1143</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="11">
         <v>474</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>20220825</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="11">
         <v>139</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="11">
         <v>309</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
         <v>20221226</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11">
         <v>20220925</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11">
         <v>20220610</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11">
         <v>20220710</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11">
         <v>20220829</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11">
         <v>20220831</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11">
         <v>20220831</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11">
         <v>20220831</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11">
         <v>20220912</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11">
         <v>20220923</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11">
         <v>20220925</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11">
         <v>20230308</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="11">
         <v>20221129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="11">
         <v>20220827</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="11">
         <v>20220828</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="11">
         <v>20220831</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="11">
         <v>20220831</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="11">
         <v>20230103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="11">
         <v>20230313</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="11">
         <v>20230314</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="11">
         <v>20230322</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="14">
         <v>20230324</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="18">
+      <c r="B56" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="14">
         <v>20230326</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="18">
+      <c r="B57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="14">
         <v>20230328</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="12" t="s">
         <v>364</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="14">
         <v>20230330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="14">
+        <v>20230416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="14">
+        <v>20230418</v>
       </c>
     </row>
   </sheetData>
@@ -3151,6 +3195,8 @@
     <hyperlink ref="A56" r:id="rId43" xr:uid="{2EEACA1F-B9C2-F445-AAC2-8786A0BEB3E0}"/>
     <hyperlink ref="A57" r:id="rId44" xr:uid="{286CC1FD-7E03-5749-92A5-A0A9607D8F81}"/>
     <hyperlink ref="A58" r:id="rId45" xr:uid="{044A2DB8-AE62-4444-8E98-6D605D3D8BC9}"/>
+    <hyperlink ref="A59" r:id="rId46" xr:uid="{47ED332A-B465-074F-85F4-A3C4FCAD4FF5}"/>
+    <hyperlink ref="A60" r:id="rId47" xr:uid="{6DF2FC20-1DFD-9242-98C5-A21296A61598}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3158,403 +3204,414 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E45454-ABB5-A740-839B-4BC8D58C720C}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A1:C35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="22.83203125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="67.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="22.83203125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>455</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>121</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>122</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>605</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>392</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>665</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>20220829</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
         <v>20220829</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>406</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
         <v>20230317</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>763</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>20230312</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20230312</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>20220911</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20221129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20220727</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20220911</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
         <v>20220924</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>20221011</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
         <v>20230311</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11">
         <v>20230318</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
         <v>20221017</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11">
         <v>20221017</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
         <v>20221019</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11">
         <v>20221207</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11">
         <v>20230307</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11">
         <v>20230307</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11">
         <v>20230311</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="11">
         <v>20220913</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="11">
         <v>20220919</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11">
         <v>20230321</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="11">
         <v>20230322</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11">
         <v>20230323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11">
         <v>20230327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="14">
+        <v>20230404</v>
       </c>
     </row>
   </sheetData>
@@ -3588,6 +3645,7 @@
     <hyperlink ref="A33" r:id="rId24" xr:uid="{1BB1A7DC-260F-5547-A272-B29B3C31BC6A}"/>
     <hyperlink ref="A34" r:id="rId25" xr:uid="{C5B8642E-3DE7-F146-81F2-3585047BA96A}"/>
     <hyperlink ref="A35" r:id="rId26" xr:uid="{215CC94D-85D2-5645-8285-6148AA47DB95}"/>
+    <hyperlink ref="A36" r:id="rId27" xr:uid="{80F27C0D-68D9-9F42-BF16-875D95CBC0C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3595,323 +3653,318 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F31A8D-9C09-434F-A40A-68C34FD0E968}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="18"/>
-    <col min="3" max="3" width="14.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="42.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>167</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>633</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>345</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
-        <v>680</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="A5" s="11">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>88</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="A6" s="11">
+        <v>141</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>141</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="A7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
+      <c r="A8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20220610</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>20220610</v>
+      <c r="A9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>20220615</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15">
-        <v>20220615</v>
+      <c r="A10" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>20221221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="A11" s="11">
+        <v>524</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
+        <v>20220926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>20220905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>20211225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
+        <v>20220625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
+        <v>20220918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
+        <v>20220919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
         <v>20221221</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>524</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
-        <v>20220926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
+        <v>20221221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
+        <v>20221222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11">
+        <v>20221229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>20211229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11">
         <v>20220905</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
-        <v>20211225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
-        <v>20220913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
-        <v>20220625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
-        <v>20220918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15">
-        <v>20220919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
-        <v>20221221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
-        <v>20221221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="15">
-        <v>20221222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="15">
-        <v>20221229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="15">
-        <v>20211229</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15">
-        <v>20220905</v>
+      <c r="A25" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>20230403</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14">
         <v>20230323</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="B2:B26" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="B2:B25" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://leetcode-cn.com/problems/happy-number/solution/202-kuai-le-shu-shuang-zhi-zhen-by-wywy-a7d9f/" xr:uid="{7A875D45-7E1E-8545-AF64-34EB582E4705}"/>
-    <hyperlink ref="A26" r:id="rId2" display="https://leetcode-cn.com/problems/valid-palindrome-ii/solution/680-yan-zheng-hui-wen-zi-fu-chuan-iishua-uu88/" xr:uid="{207896D7-0D91-BF44-BA56-430899026F50}"/>
-    <hyperlink ref="A13" r:id="rId3" display="https://leetcode.cn/problems/3sum/solution/15-san-shu-zhi-he-by-wywy-m-uqe7/" xr:uid="{A8B97D61-7316-B441-A556-4D0408C81A6D}"/>
-    <hyperlink ref="A24" r:id="rId4" display="https://leetcode-cn.com/problems/minimum-window-substring/solution/76-zui-xiao-fu-gai-zi-chuan-shuang-zhi-z-gxhd/" xr:uid="{7188B643-C3C1-1D40-8CA8-DCE17813526F}"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://leetcode.cn/problems/container-with-most-water/solution/11-by-wywy-m-vmtq/" xr:uid="{543EADEC-DCE9-E843-8E68-FEA475DC8D04}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://leetcode-cn.com/problems/3sum-closest/solution/16-zui-jie-jin-de-san-shu-zhi-he-shuang-ruzyf/" xr:uid="{E0BA003A-BB26-D145-A79C-5FFEF5C0BBDD}"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://leetcode-cn.com/problems/valid-triangle-number/solution/611-you-xiao-san-jiao-xing-de-ge-shu-shu-xfme/" xr:uid="{273F2793-9F4D-F840-8245-8C122D2E7471}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array/solution/26-by-wywy-m-z7ur/" xr:uid="{24A80321-3901-544D-8DBF-589C393B4C72}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://leetcode.cn/problems/remove-element/solution/27-by-wywy-m-ia19/" xr:uid="{BBBB8B48-9056-EC42-90DE-21BD18E11F47}"/>
-    <hyperlink ref="A17" r:id="rId10" display="https://leetcode.cn/problems/two-sum-ii-input-array-is-sorted/solution/by-wywy-m-gvgw/" xr:uid="{328ECBC5-14EB-5044-B141-E6AC91C13904}"/>
-    <hyperlink ref="A25" r:id="rId11" display="https://leetcode.cn/problems/trapping-rain-water/solution/42-jie-yu-shui-by-wywy-m-rjzm/" xr:uid="{CB2C5287-E477-D24C-978A-C3F11E0A06C1}"/>
-    <hyperlink ref="A18" r:id="rId12" display="https://leetcode.cn/problems/meeting-scheduler/solution/1229-by-wywy-m-7aft/" xr:uid="{F8E39505-01CA-354F-A83F-15392332BF6F}"/>
-    <hyperlink ref="A19" r:id="rId13" display="https://leetcode.cn/problems/string-compression/solution/443-by-wywy-m-xf4r/" xr:uid="{99AE0CE6-14E8-6146-B44A-5293E3FCB04D}"/>
-    <hyperlink ref="A11" r:id="rId14" display="https://leetcode.cn/problems/two-sum-less-than-k/solution/1099-by-wywy-m-chx8/" xr:uid="{65ECD7CA-BBCD-F147-9FE8-0BFF4BE2BFFE}"/>
-    <hyperlink ref="A20" r:id="rId15" display="https://leetcode.cn/problems/3sum-smaller/solution/259-by-wywy-m-h7mj/" xr:uid="{3408EF56-A4C1-8D42-A2EE-792AFDEEE779}"/>
-    <hyperlink ref="A21" r:id="rId16" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array-ii/solution/80-by-wywy-m-qyex/" xr:uid="{FE931081-628C-0648-8BB5-62E0A2316B3C}"/>
-    <hyperlink ref="A22" r:id="rId17" display="https://leetcode.cn/problems/interval-list-intersections/solution/-by-wywy-m-z4yl/" xr:uid="{21F9F626-4B11-2645-AC79-94ADDF4EE693}"/>
-    <hyperlink ref="A23" r:id="rId18" display="https://leetcode.cn/problems/linked-list-cycle-ii/solution/-by-wywy-m-fjpu/" xr:uid="{CD023019-7696-A640-916E-97A74A371A21}"/>
-    <hyperlink ref="A27" r:id="rId19" xr:uid="{EC284C1F-ADF6-0447-B1A8-F3DF20F019ED}"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://leetcode-cn.com/problems/happy-number/solution/202-kuai-le-shu-shuang-zhi-zhen-by-wywy-a7d9f/" xr:uid="{7A875D45-7E1E-8545-AF64-34EB582E4705}"/>
+    <hyperlink ref="A25" r:id="rId2" display="https://leetcode-cn.com/problems/valid-palindrome-ii/solution/680-yan-zheng-hui-wen-zi-fu-chuan-iishua-uu88/" xr:uid="{207896D7-0D91-BF44-BA56-430899026F50}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://leetcode.cn/problems/3sum/solution/15-san-shu-zhi-he-by-wywy-m-uqe7/" xr:uid="{A8B97D61-7316-B441-A556-4D0408C81A6D}"/>
+    <hyperlink ref="A23" r:id="rId4" display="https://leetcode-cn.com/problems/minimum-window-substring/solution/76-zui-xiao-fu-gai-zi-chuan-shuang-zhi-z-gxhd/" xr:uid="{7188B643-C3C1-1D40-8CA8-DCE17813526F}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://leetcode.cn/problems/container-with-most-water/solution/11-by-wywy-m-vmtq/" xr:uid="{543EADEC-DCE9-E843-8E68-FEA475DC8D04}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://leetcode-cn.com/problems/3sum-closest/solution/16-zui-jie-jin-de-san-shu-zhi-he-shuang-ruzyf/" xr:uid="{E0BA003A-BB26-D145-A79C-5FFEF5C0BBDD}"/>
+    <hyperlink ref="A15" r:id="rId7" display="https://leetcode-cn.com/problems/valid-triangle-number/solution/611-you-xiao-san-jiao-xing-de-ge-shu-shu-xfme/" xr:uid="{273F2793-9F4D-F840-8245-8C122D2E7471}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array/solution/26-by-wywy-m-z7ur/" xr:uid="{24A80321-3901-544D-8DBF-589C393B4C72}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://leetcode.cn/problems/remove-element/solution/27-by-wywy-m-ia19/" xr:uid="{BBBB8B48-9056-EC42-90DE-21BD18E11F47}"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://leetcode.cn/problems/two-sum-ii-input-array-is-sorted/solution/by-wywy-m-gvgw/" xr:uid="{328ECBC5-14EB-5044-B141-E6AC91C13904}"/>
+    <hyperlink ref="A24" r:id="rId11" display="https://leetcode.cn/problems/trapping-rain-water/solution/42-jie-yu-shui-by-wywy-m-rjzm/" xr:uid="{CB2C5287-E477-D24C-978A-C3F11E0A06C1}"/>
+    <hyperlink ref="A17" r:id="rId12" display="https://leetcode.cn/problems/meeting-scheduler/solution/1229-by-wywy-m-7aft/" xr:uid="{F8E39505-01CA-354F-A83F-15392332BF6F}"/>
+    <hyperlink ref="A18" r:id="rId13" display="https://leetcode.cn/problems/string-compression/solution/443-by-wywy-m-xf4r/" xr:uid="{99AE0CE6-14E8-6146-B44A-5293E3FCB04D}"/>
+    <hyperlink ref="A10" r:id="rId14" display="https://leetcode.cn/problems/two-sum-less-than-k/solution/1099-by-wywy-m-chx8/" xr:uid="{65ECD7CA-BBCD-F147-9FE8-0BFF4BE2BFFE}"/>
+    <hyperlink ref="A19" r:id="rId15" display="https://leetcode.cn/problems/3sum-smaller/solution/259-by-wywy-m-h7mj/" xr:uid="{3408EF56-A4C1-8D42-A2EE-792AFDEEE779}"/>
+    <hyperlink ref="A20" r:id="rId16" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array-ii/solution/80-by-wywy-m-qyex/" xr:uid="{FE931081-628C-0648-8BB5-62E0A2316B3C}"/>
+    <hyperlink ref="A21" r:id="rId17" display="https://leetcode.cn/problems/interval-list-intersections/solution/-by-wywy-m-z4yl/" xr:uid="{21F9F626-4B11-2645-AC79-94ADDF4EE693}"/>
+    <hyperlink ref="A22" r:id="rId18" display="https://leetcode.cn/problems/linked-list-cycle-ii/solution/-by-wywy-m-fjpu/" xr:uid="{CD023019-7696-A640-916E-97A74A371A21}"/>
+    <hyperlink ref="A26" r:id="rId19" xr:uid="{EC284C1F-ADF6-0447-B1A8-F3DF20F019ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3921,422 +3974,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="70.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
         <v>20220912</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
         <v>20220920</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
         <v>20230217</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>20230216</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>20230216</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>20230217</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
         <v>20230312</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
         <v>20230328</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
         <v>20230329</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>20220612</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20220912</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20220914</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20220917</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
         <v>20220926</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>20221020</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
         <v>20230220</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>20221018</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>20230324</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>20230220</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11">
         <v>20220925</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11">
         <v>20230219</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11">
         <v>20220906</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11">
         <v>20220906</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
         <v>20220906</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11">
         <v>20220906</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11">
         <v>20220906</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11">
         <v>20220906</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="11">
         <v>20220913</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="11">
         <v>20220923</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="11">
         <v>20230308</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="11">
         <v>20230319</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11">
+        <v>20230415</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C24">
@@ -4375,6 +4434,7 @@
     <hyperlink ref="A23" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
     <hyperlink ref="A10" r:id="rId30" xr:uid="{0E22DCEF-0BC9-3444-97D4-2AB1C84A8351}"/>
     <hyperlink ref="A11" r:id="rId31" xr:uid="{287B3E6D-9056-694F-B287-0EF92D0296AA}"/>
+    <hyperlink ref="A38" r:id="rId32" xr:uid="{9F4002CE-364B-494E-B6AB-EFEC92EB2918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4395,244 +4455,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
         <v>20211202</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>20211226</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>20220905</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>20220904</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>20220905</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>20220904</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
         <v>20220904</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>20220616</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>20220619</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
         <v>20220904</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>20220820</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
         <v>20220924</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
         <v>20230218</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
         <v>20230218</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
         <v>20230219</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>20230219</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>20230309</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>20211128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>20220912</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>20230219</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>20230308</v>
       </c>
     </row>
@@ -4671,251 +4731,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0168C-78E6-194A-941B-C4F6EE34E1A2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="62.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
         <v>20221129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
         <v>20220925</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
         <v>20221219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
         <v>20230225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>20221129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>20221219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>20220912</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
         <v>20221010</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
         <v>20221213</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
         <v>20221220</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
         <v>20230225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>20230225</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20230226</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>20230226</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20230308</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20230312</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>20220726</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>20220913</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>20230227</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20230414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>20230326</v>
       </c>
     </row>
@@ -4944,6 +5015,7 @@
     <hyperlink ref="A16" r:id="rId18" display="https://leetcode.cn/problems/get-kth-magic-number-lcci/solution/mian-shi-ti-1709-di-k-ge-shu-shu-xue-by-i0rvw/" xr:uid="{60A0FE99-59EB-9342-8EC9-C499A6B7D103}"/>
     <hyperlink ref="A17" r:id="rId19" display="https://leetcode.cn/problems/minimum-moves-to-equal-array-elements/solution/453-zui-xiao-cao-zuo-ci-shu-shi-shu-zu-y-jux0/" xr:uid="{7D95EC14-5D0E-2241-B657-124C5B842D1A}"/>
     <hyperlink ref="A23" r:id="rId20" xr:uid="{C4A1BF58-7EB0-E04E-A4D3-133088260C64}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{9C163A12-412C-3C4A-8057-201C815F4E94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4964,180 +5036,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
         <v>20230227</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>20230227</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>190</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>461</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>20230307</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>20230227</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>342</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>693</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>476</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>371</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
         <v>20211128</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
         <v>20220620</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>137</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>260</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>338</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>318</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>20230311</v>
       </c>
     </row>
@@ -5173,68 +5245,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
         <v>20220823</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>20220823</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>20220823</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>20220925</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>20220823</v>
       </c>
     </row>
@@ -5255,303 +5327,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6EE472-789D-FD41-8B4D-13FA02AD5B6B}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="64.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>232</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>225</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14">
         <v>20220825</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
         <v>20230312</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>155</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14">
         <v>20220919</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>739</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>503</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14">
         <v>20220918</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14">
         <v>20221223</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
         <v>20220825</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14">
         <v>20220911</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14">
         <v>20220913</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14">
         <v>20220922</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14">
         <v>20220925</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14">
         <v>20221213</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14">
         <v>20230103</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14">
         <v>20230103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14">
         <v>20230103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14">
         <v>20230109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14">
         <v>20230308</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="14">
         <v>20220820</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="14">
         <v>20220923</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="14">
         <v>20220923</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="14">
         <v>20221018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>20230404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>20230412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="14">
+        <v>20230413</v>
       </c>
     </row>
   </sheetData>
@@ -5579,6 +5685,9 @@
     <hyperlink ref="A21" r:id="rId18" display="https://leetcode.cn/problems/design-phone-directory/solution/379-by-wywy-m-pcgg/" xr:uid="{912F70F9-8FED-4844-AA1E-8E9331F43B4F}"/>
     <hyperlink ref="A22" r:id="rId19" display="https://leetcode.cn/problems/score-of-parentheses/solution/856-gua-hao-de-fen-shu-stack-by-ywrx-5and/" xr:uid="{16E42127-27EF-1446-8A15-E551F6EBB563}"/>
     <hyperlink ref="A6" r:id="rId20" display="https://leetcode.cn/problems/backspace-string-compare/solution/844-bi-jiao-han-tui-ge-de-zi-fu-chuan-st-0xc7/" xr:uid="{67DCDB62-41ED-404A-B6D6-918D50A0EA63}"/>
+    <hyperlink ref="A27" r:id="rId21" xr:uid="{F7D66BB5-D385-A748-90A8-5170E61B545A}"/>
+    <hyperlink ref="A28" r:id="rId22" xr:uid="{B94F7F45-0C42-9749-9646-3A1CE1D18EF6}"/>
+    <hyperlink ref="A29" r:id="rId23" xr:uid="{24579073-6DD8-2E4A-8745-FD3B694E6954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5586,148 +5695,183 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
         <v>20221020</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
         <v>20230317</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
         <v>20220911</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
         <v>20220911</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>20220913</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>20220914</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>20220918</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
         <v>20221207</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
         <v>20230309</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
         <v>20230322</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
         <v>20230327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>20230415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>20230418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11">
+        <v>20230418</v>
       </c>
     </row>
   </sheetData>
@@ -5746,6 +5890,9 @@
     <hyperlink ref="A3" r:id="rId9" display="https://leetcode.cn/problems/find-n-unique-integers-sum-up-to-zero/solution/1304-he-wei-ling-de-n-ge-bu-tong-zheng-s-oi7x/" xr:uid="{E5523D15-7AF9-B043-A0B1-6976D5C2D31D}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{19B31EC3-C3AB-A540-AA50-BC43CAFAAB4E}"/>
     <hyperlink ref="A12" r:id="rId11" xr:uid="{8FD603C7-23F2-7B4E-A68C-A318C10DFFAE}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{F5895EB5-041F-D347-B375-1B358D8FBBDE}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.cn/problems/remove-comments/solution/by-wywy-m-ht1s/" xr:uid="{5937915A-E6C1-1747-B65B-3971BC6B9E38}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{FE26434D-C09B-954F-A0DB-D8807DB08814}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5761,130 +5908,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="52.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
         <v>20220908</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
         <v>20220907</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
         <v>20220908</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
         <v>20220911</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>20220911</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>20230318</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>20230212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>20220913</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>20230212</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>20230323</v>
       </c>
     </row>
@@ -5918,174 +6065,174 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="16.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="11" width="20.33203125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.1640625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="49.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="20.33203125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>20230320</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
         <v>20230317</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>20230316</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>20230314</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>20230322</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6108,6 +6255,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C589BEE-21A2-4E43-9E3C-F419C25A1E80}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="24.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11">
+        <v>20211127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>20220619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20220624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>20221018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>20230403</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode-cn.com/problems/integer-to-english-words/solution/273-zheng-shu-zhuan-huan-ying-wen-biao-s-d9es/" xr:uid="{6A706088-D403-F94C-894B-198211511F89}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/solution/by-wywy-m-9kan/" xr:uid="{9AC6CB63-36F4-4540-8332-35BD7474DBA7}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.cn/problems/shu-de-zi-jie-gou-lcof/solution/by-wywy-m-2zs3/" xr:uid="{9C6AD427-7F35-8A46-BE8D-8AE263AD5051}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.cn/problems/integer-to-english-words/solution/by-wywy-m-4yer/" xr:uid="{4208DCE0-2370-3C48-8A98-BD04CF3C5890}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{D2B24540-D3F4-BB42-AE97-BDB45B74E404}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A83A485-E397-D14F-A499-2ABCFFE4002D}">
   <dimension ref="A1:C5"/>
@@ -6118,64 +6358,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.6640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="4"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="43.6640625" style="4"/>
+    <col min="1" max="1" width="43.6640625" style="3"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="43.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
         <v>20230313</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>20230313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>20230314</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>20230321</v>
       </c>
     </row>
@@ -6192,513 +6432,524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9675C-39F8-DD4C-B84E-2CBC8BF054BB}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="11"/>
-    <col min="3" max="3" width="14.6640625" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="65.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="14.6640625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
         <v>20230213</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>543</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>226</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>617</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>112</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>572</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>101</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
         <v>20230220</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>404</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>687</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>671</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>637</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="B13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11">
         <v>20230213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11">
         <v>20230213</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11">
         <v>20230213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20230214</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20230314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>337</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>513</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>144</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>94</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
         <v>20220814</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11">
         <v>20220824</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
         <v>20220824</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11">
         <v>20220824</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11">
         <v>20220824</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11">
         <v>20220824</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11">
         <v>20220905</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
         <v>20220913</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11">
         <v>20220926</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11">
         <v>20220927</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="11">
         <v>20230213</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11">
         <v>20230214</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11">
+        <v>20230404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11">
+        <v>20230319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11">
+        <v>20230319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>145</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>1028</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11">
+        <v>20220927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11">
+        <v>20220913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11">
+        <v>20220925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11">
         <v>20230214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="15">
-        <v>20230319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="15">
-        <v>20230319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
-        <v>145</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
-        <v>1028</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="15">
-        <v>20220927</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="15">
-        <v>20220913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="15">
-        <v>20220925</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="15">
-        <v>20230214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="B44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="14">
         <v>20230322</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="18">
+      <c r="B45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14">
         <v>20230325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="14">
+        <v>20230402</v>
       </c>
     </row>
   </sheetData>
@@ -6734,6 +6985,7 @@
     <hyperlink ref="A37" r:id="rId26" xr:uid="{7EFDD8E6-A5D9-D243-BF9C-174B93993794}"/>
     <hyperlink ref="A44" r:id="rId27" xr:uid="{CC14A0A8-50CC-D847-829E-993E8EF49BDF}"/>
     <hyperlink ref="A45" r:id="rId28" xr:uid="{3524C6A1-4A90-054F-AC10-D37588A6DB15}"/>
+    <hyperlink ref="A46" r:id="rId29" xr:uid="{C4AE7CA4-776B-F248-BA2A-4D5B88729A2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6749,240 +7001,240 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.5" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="4"/>
-    <col min="2" max="2" width="21" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="38.5" style="4"/>
+    <col min="1" max="1" width="38.5" style="3"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="38.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>669</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>235</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>108</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>653</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>501</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>110</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>230</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>538</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>700</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>20230215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>109</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>20230214</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>98</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
         <v>20230215</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>450</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
         <v>20220825</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>20220825</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>20220921</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
         <v>20230216</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
         <v>20230318</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
         <v>20230320</v>
       </c>
     </row>
@@ -7007,348 +7259,381 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38DCB7-D208-4A47-A52C-374E9CD57FFC}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="75.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>217</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>594</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>242</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
         <v>20220626</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
         <v>20220917</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
         <v>12.18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
         <v>12.27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
         <v>20220623</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
         <v>20220911</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>20220913</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20220918</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>20220918</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20220927</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20221010</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20230312</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
         <v>20230314</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>20230316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
         <v>20230318</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>20220919</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>20220920</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
+        <v>20230416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11">
         <v>20230212</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15">
-        <v>20230212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11">
         <v>20230321</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
         <v>20230325</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
         <v>20230326</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="B29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
         <v>20230401</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14">
         <v>20230401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="14">
+        <v>20230404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14">
+        <v>20230416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14">
+        <v>20230418</v>
       </c>
     </row>
   </sheetData>
@@ -7381,6 +7666,9 @@
     <hyperlink ref="A28" r:id="rId23" xr:uid="{30A2B5A7-1793-D846-9A1F-B579B41E0CEF}"/>
     <hyperlink ref="A29" r:id="rId24" xr:uid="{209BED91-FED1-E344-83AE-DBA906F973B8}"/>
     <hyperlink ref="A30" r:id="rId25" xr:uid="{A7409944-9E1F-4543-B4B4-9D8AF255C01E}"/>
+    <hyperlink ref="A31" r:id="rId26" xr:uid="{334D5610-4995-D240-B875-6C846738CDEB}"/>
+    <hyperlink ref="A32" r:id="rId27" xr:uid="{924BCA66-6781-1140-B921-EF1661E4DF06}"/>
+    <hyperlink ref="A33" r:id="rId28" xr:uid="{E466206C-14CE-3347-9CC0-BFB9E1DC17A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7388,236 +7676,249 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC8C2AA-D7C9-2742-93B7-20CCECF41D28}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
         <v>20221229</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
         <v>20220821</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
         <v>20220822</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
         <v>20220822</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
         <v>20220925</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>20220822</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>445</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>725</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>328</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
         <v>20220801</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
         <v>20220804</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20220807</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>20220821</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20220822</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>20220911</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
         <v>20221219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="11">
         <v>20211221</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="11">
         <v>20220821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
+        <v>20230403</v>
       </c>
     </row>
   </sheetData>
@@ -7640,6 +7941,7 @@
     <hyperlink ref="A17" r:id="rId13" display="https://leetcode.cn/problems/flatten-a-multilevel-doubly-linked-list/solution/-by-wywy-m-fqda/" xr:uid="{785602AD-1693-3748-8A19-C5C45616E649}"/>
     <hyperlink ref="A6" r:id="rId14" display="https://leetcode.cn/problems/linked-list-cycle/solution/141-huan-xing-lian-biao-shuang-zhi-zhen-yxsjs/" xr:uid="{CCD68D61-1EEC-AE48-9E44-45797E0A133D}"/>
     <hyperlink ref="A18" r:id="rId15" display="https://leetcode.cn/problems/ugly-number-ii/solution/264-by-wywy-m-6sjp/" xr:uid="{B7031ACD-F663-924A-A802-77DEAF7B7605}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{A5AA11A3-4AD4-B547-AFCF-F547CDD2917F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7647,194 +7949,205 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5312F16-4C6A-4A4E-8695-9D34E91CF0B1}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="9"/>
-    <col min="3" max="3" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="61.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>242</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>409</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>205</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>696</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>125</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
         <v>20220906</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
         <v>20220913</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
         <v>20220917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>647</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
         <v>20220807</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20220922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>20230317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="11">
         <v>20220905</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
         <v>20230321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14">
+        <v>20230402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10">
+        <v>20230403</v>
       </c>
     </row>
   </sheetData>
@@ -7847,9 +8160,10 @@
     <hyperlink ref="A8" r:id="rId3" display="https://leetcode.cn/problems/rearrange-spaces-between-words/solution/169-by-wywy-m-ahcn/" xr:uid="{09D4C7A6-1540-4A43-9465-17A1D768A644}"/>
     <hyperlink ref="A9" r:id="rId4" display="https://leetcode.cn/problems/remove-palindromic-subsequences/solution/1332-by-wywy-m-poch/" xr:uid="{88A0C43C-29EF-1E43-80E3-51A7EB491C48}"/>
     <hyperlink ref="A10" r:id="rId5" display="https://leetcode.cn/problems/check-if-one-string-swap-can-make-strings-equal/solution/-by-wywy-m-d8pw/" xr:uid="{777AAFC0-0469-A24D-B069-F9A640105B3A}"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/remove-comments/solution/by-wywy-m-ht1s/" xr:uid="{5937915A-E6C1-1747-B65B-3971BC6B9E38}"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://leetcode.cn/problems/minimum-deletions-to-make-string-balanced/solution/1653-shi-zi-fu-chuan-ping-heng-de-zui-sh-2f0h/" xr:uid="{B9261417-31AF-5642-98AF-B51161C9DE78}"/>
-    <hyperlink ref="A16" r:id="rId8" xr:uid="{4169845B-5CBA-EF49-B6C7-D93D23DA5A3F}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://leetcode.cn/problems/minimum-deletions-to-make-string-balanced/solution/1653-shi-zi-fu-chuan-ping-heng-de-zui-sh-2f0h/" xr:uid="{B9261417-31AF-5642-98AF-B51161C9DE78}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{4169845B-5CBA-EF49-B6C7-D93D23DA5A3F}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{6B94E525-530B-5E44-B2F3-3DD147F92859}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{DE062E1E-BE02-234A-BD60-4353C69A9A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7865,108 +8179,108 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="52.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
         <v>20230110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
         <v>20230323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
         <v>20230109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>20220620</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>20230110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>20230316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
         <v>20230325</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>20230327</v>
       </c>
     </row>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE95B5-DB1D-5E4C-9C92-181F108370BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA186E54-9023-9E4E-A2B2-393CDD4B4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="5" activeTab="5" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="1" activeTab="13" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="417">
   <si>
     <t>#</t>
   </si>
@@ -1217,13 +1217,103 @@
   </si>
   <si>
     <t>916 单词子集</t>
+  </si>
+  <si>
+    <t>149 直线上最多的点数</t>
+  </si>
+  <si>
+    <t>1044 最长重复子串</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>400 第N位数字</t>
+  </si>
+  <si>
+    <t>2007 从双倍数组中还原原数组</t>
+  </si>
+  <si>
+    <t>1207 独一无二的出现次数</t>
+  </si>
+  <si>
+    <t>869 重新排序得到2的幂</t>
+  </si>
+  <si>
+    <t>1723 完成所有工作的最短时间</t>
+  </si>
+  <si>
+    <t>473 火柴拼正方形</t>
+  </si>
+  <si>
+    <t>2340 生成有效数组的最少交换次数</t>
+  </si>
+  <si>
+    <t>2386 找出数组的第k大和</t>
+  </si>
+  <si>
+    <t>719 找出第k小的数对距离</t>
+  </si>
+  <si>
+    <t>127 单词接龙</t>
+  </si>
+  <si>
+    <t>1239 串联字符串的最大长度</t>
+  </si>
+  <si>
+    <t>1487 保证文件名统一</t>
+  </si>
+  <si>
+    <t>186 反转字符串中的单词II</t>
+  </si>
+  <si>
+    <t>468 验证IP地址</t>
+  </si>
+  <si>
+    <t>498 对角线遍历</t>
+  </si>
+  <si>
+    <t>967 连续差相同的数字</t>
+  </si>
+  <si>
+    <t>1028 从先序遍历还原二叉树</t>
+  </si>
+  <si>
+    <t>1267 统计参与通信的服务器</t>
+  </si>
+  <si>
+    <t>99 恢复二叉搜索树</t>
+  </si>
+  <si>
+    <t>1027 最长等差数列</t>
+  </si>
+  <si>
+    <t>835 图像重叠</t>
+  </si>
+  <si>
+    <t>2244 完成所有任务需要的最少轮数</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2256 最小平均差</t>
+  </si>
+  <si>
+    <t>前缀和</t>
+  </si>
+  <si>
+    <t>2486 追加字符以获得子序列</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1336,6 +1426,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1358,7 +1455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1378,8 +1475,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1400,7 +1495,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1718,334 +1816,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEBEE3E-F0EC-6444-B662-E3F6072FA40A}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="58.83203125" style="10"/>
+    <col min="1" max="16384" width="58.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="D1" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>283</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>566</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>485</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>645</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>697</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220918</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220917</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>240</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>378</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>287</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>667</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>565</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20220919</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20220620</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220625</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220822</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
         <v>20220822</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20220822</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20220922</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9">
         <v>20221213</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
         <v>20230315</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9">
         <v>20221229</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9">
         <v>20221230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
         <v>20221231</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
         <v>20221231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9">
         <v>20211229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9">
         <v>20230323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20230501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12">
+        <v>20230507</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2071,6 +2197,8 @@
     <hyperlink ref="A26" r:id="rId16" display="https://leetcode.cn/problems/gou-jian-cheng-ji-shu-zu-lcof/solution/-by-wywy-m-prms/" xr:uid="{7896A256-1687-AC42-B541-CEBE7608ACF7}"/>
     <hyperlink ref="A27" r:id="rId17" display="https://leetcode.cn/problems/car-pooling/solution/1094-by-wywy-m-nynd/" xr:uid="{7F958BE9-6BCA-974B-8544-FD3ED7DEBFA9}"/>
     <hyperlink ref="A29" r:id="rId18" xr:uid="{0D314D86-B176-9A4E-A240-D5722C1AC8DC}"/>
+    <hyperlink ref="A30" r:id="rId19" xr:uid="{960DA1BE-8538-8A49-A95F-9A81811308AB}"/>
+    <hyperlink ref="A31" r:id="rId20" xr:uid="{A4921CBC-6605-4C43-B669-D49D2C2B8E1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2078,249 +2206,271 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87904762-BFEC-434E-9C53-A84DD8444479}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="77.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>69</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>744</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>278</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>704</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
         <v>20221221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>540</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20221228</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>20220823</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>74</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>33</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>81</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220823</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20220925</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20230330</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20221219</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20221220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>154</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20230327</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
         <v>20230328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12">
+        <v>20230420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17">
+        <v>20230428</v>
       </c>
     </row>
   </sheetData>
@@ -2339,8 +2489,11 @@
     <hyperlink ref="A17" r:id="rId9" display="https://leetcode.cn/problems/peak-index-in-a-mountain-array/solution/-by-wywy-m-t5nn/" xr:uid="{F4141991-EED2-FD48-AA1B-BDDE998DEF52}"/>
     <hyperlink ref="A20" r:id="rId10" xr:uid="{75D8F9F4-19F7-E547-8B84-32E6DC195CCE}"/>
     <hyperlink ref="A21" r:id="rId11" xr:uid="{B6228B73-C7EF-C847-B5B7-AAE94E9E74E8}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{408076E8-F063-D546-BD1E-BD94DDE0FE43}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{52ACA5CA-4072-CC4C-927E-97F6C4AFB9CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2471,678 +2624,689 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19" style="14" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="53.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>303</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220829</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220829</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220829</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>62</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>413</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>343</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>279</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220826</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>646</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>376</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>1143</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>474</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20220825</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>139</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>309</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9">
         <v>20221226</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
         <v>20220925</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
         <v>20220610</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
         <v>20220710</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="9">
         <v>20220829</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
         <v>20220831</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9">
         <v>20220831</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9">
         <v>20220831</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9">
         <v>20220912</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9">
         <v>20220923</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="9">
         <v>20220925</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9">
         <v>20230308</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9">
         <v>20221129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="B44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9">
         <v>20220827</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="B47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="B48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="9">
         <v>20220828</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="B49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9">
         <v>20220831</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9">
         <v>20220831</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="B51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="9">
         <v>20230103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="9">
         <v>20230313</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="B53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="9">
         <v>20230314</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9">
         <v>20230322</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="14">
+      <c r="B55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="12">
         <v>20230324</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="14">
+      <c r="B56" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="12">
         <v>20230326</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="14">
+      <c r="B57" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="12">
         <v>20230328</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="14">
+      <c r="B58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="12">
         <v>20230330</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="14">
+      <c r="B59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="12">
         <v>20230416</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="14">
+      <c r="B60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="12">
         <v>20230418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="12">
+        <v>20230505</v>
       </c>
     </row>
   </sheetData>
@@ -3197,6 +3361,7 @@
     <hyperlink ref="A58" r:id="rId45" xr:uid="{044A2DB8-AE62-4444-8E98-6D605D3D8BC9}"/>
     <hyperlink ref="A59" r:id="rId46" xr:uid="{47ED332A-B465-074F-85F4-A3C4FCAD4FF5}"/>
     <hyperlink ref="A60" r:id="rId47" xr:uid="{6DF2FC20-1DFD-9242-98C5-A21296A61598}"/>
+    <hyperlink ref="A61" r:id="rId48" xr:uid="{8526C2F7-8A20-524C-B11E-BA3902B415C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3204,414 +3369,436 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E45454-ABB5-A740-839B-4BC8D58C720C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="22.83203125" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="67.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="22.83203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>455</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>121</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>122</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>605</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>392</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>665</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220829</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>20220829</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>406</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>20230317</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>763</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20230312</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20230312</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20221129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220727</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
         <v>20220924</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20221011</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20230311</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9">
         <v>20230318</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
         <v>20221017</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9">
         <v>20221017</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9">
         <v>20221019</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
         <v>20221207</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
         <v>20230307</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
         <v>20230307</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9">
         <v>20230311</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9">
         <v>20220919</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
         <v>20230321</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9">
         <v>20230322</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
         <v>20230323</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9">
         <v>20230327</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="B36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="12">
         <v>20230404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="12">
+        <v>20230427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="12">
+        <v>20230507</v>
       </c>
     </row>
   </sheetData>
@@ -3646,6 +3833,8 @@
     <hyperlink ref="A34" r:id="rId25" xr:uid="{C5B8642E-3DE7-F146-81F2-3585047BA96A}"/>
     <hyperlink ref="A35" r:id="rId26" xr:uid="{215CC94D-85D2-5645-8285-6148AA47DB95}"/>
     <hyperlink ref="A36" r:id="rId27" xr:uid="{80F27C0D-68D9-9F42-BF16-875D95CBC0C0}"/>
+    <hyperlink ref="A37" r:id="rId28" xr:uid="{D0F70AA5-4CB9-B64D-9DFF-0EF4CD5ED4DC}"/>
+    <hyperlink ref="A38" r:id="rId29" xr:uid="{65AC0A5C-BD2D-BC4B-B3E5-8FC3E2DC8587}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3653,292 +3842,303 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F31A8D-9C09-434F-A40A-68C34FD0E968}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="42.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>167</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>633</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>345</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>88</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>141</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220610</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
         <v>20220615</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
         <v>20221221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>524</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20220926</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220905</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20211225</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20220625</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220918</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220919</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
         <v>20221221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20221221</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20221222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9">
         <v>20221229</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
         <v>20211229</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
         <v>20220905</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
         <v>20230403</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12">
         <v>20230323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20230507</v>
       </c>
     </row>
   </sheetData>
@@ -3965,6 +4165,7 @@
     <hyperlink ref="A21" r:id="rId17" display="https://leetcode.cn/problems/interval-list-intersections/solution/-by-wywy-m-z4yl/" xr:uid="{21F9F626-4B11-2645-AC79-94ADDF4EE693}"/>
     <hyperlink ref="A22" r:id="rId18" display="https://leetcode.cn/problems/linked-list-cycle-ii/solution/-by-wywy-m-fjpu/" xr:uid="{CD023019-7696-A640-916E-97A74A371A21}"/>
     <hyperlink ref="A26" r:id="rId19" xr:uid="{EC284C1F-ADF6-0447-B1A8-F3DF20F019ED}"/>
+    <hyperlink ref="A27" r:id="rId20" xr:uid="{1EFCF0FB-75B5-3245-9040-15D21CA42121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3972,430 +4173,443 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="70.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <v>20220912</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220920</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
         <v>20230217</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20230216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
-        <v>20230216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20230502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20230217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>20230312</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>20230328</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>20230329</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20220612</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20220912</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220914</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220917</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
         <v>20220926</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20221020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20230220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
         <v>20221018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
         <v>20230324</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
         <v>20230220</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>20230428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
         <v>20220925</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
         <v>20230219</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9">
         <v>20220913</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="9">
         <v>20220923</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9">
         <v>20230308</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9">
         <v>20230319</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9">
         <v>20230415</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9">
+        <v>20230429</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C24">
@@ -4419,22 +4633,24 @@
     <hyperlink ref="A20" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
     <hyperlink ref="A24" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
     <hyperlink ref="A21" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
-    <hyperlink ref="A34" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
-    <hyperlink ref="A35" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
-    <hyperlink ref="A26" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
-    <hyperlink ref="A27" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
-    <hyperlink ref="A28" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
-    <hyperlink ref="A29" r:id="rId22" display="https://leetcode.cn/problems/number-of-closed-islands/solution/1254-tong-ji-feng-bi-by-wywy-m-qc5d/" xr:uid="{7F2AB7CB-072B-9448-BB8B-4B7470CEC5CE}"/>
-    <hyperlink ref="A30" r:id="rId23" display="https://leetcode.cn/problems/number-of-enclaves/solution/1020-fei-di-by-wywy-m-n8fe/" xr:uid="{BACB5764-3CC5-A84C-8DC0-4FD405B3E874}"/>
-    <hyperlink ref="A31" r:id="rId24" display="https://leetcode.cn/problems/max-area-of-island/solution/695-by-wywy-m-iuv4/" xr:uid="{17FBEAD3-6BD2-B54B-AFE1-BCD179AE4565}"/>
-    <hyperlink ref="A32" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
-    <hyperlink ref="A33" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
-    <hyperlink ref="A36" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
-    <hyperlink ref="A37" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
+    <hyperlink ref="A35" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
+    <hyperlink ref="A36" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
+    <hyperlink ref="A27" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
+    <hyperlink ref="A28" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
+    <hyperlink ref="A29" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
+    <hyperlink ref="A30" r:id="rId22" display="https://leetcode.cn/problems/number-of-closed-islands/solution/1254-tong-ji-feng-bi-by-wywy-m-qc5d/" xr:uid="{7F2AB7CB-072B-9448-BB8B-4B7470CEC5CE}"/>
+    <hyperlink ref="A31" r:id="rId23" display="https://leetcode.cn/problems/number-of-enclaves/solution/1020-fei-di-by-wywy-m-n8fe/" xr:uid="{BACB5764-3CC5-A84C-8DC0-4FD405B3E874}"/>
+    <hyperlink ref="A32" r:id="rId24" display="https://leetcode.cn/problems/max-area-of-island/solution/695-by-wywy-m-iuv4/" xr:uid="{17FBEAD3-6BD2-B54B-AFE1-BCD179AE4565}"/>
+    <hyperlink ref="A33" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
+    <hyperlink ref="A34" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
+    <hyperlink ref="A37" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
+    <hyperlink ref="A38" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
     <hyperlink ref="A23" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
     <hyperlink ref="A10" r:id="rId30" xr:uid="{0E22DCEF-0BC9-3444-97D4-2AB1C84A8351}"/>
     <hyperlink ref="A11" r:id="rId31" xr:uid="{287B3E6D-9056-694F-B287-0EF92D0296AA}"/>
-    <hyperlink ref="A38" r:id="rId32" xr:uid="{9F4002CE-364B-494E-B6AB-EFEC92EB2918}"/>
+    <hyperlink ref="A39" r:id="rId32" xr:uid="{9F4002CE-364B-494E-B6AB-EFEC92EB2918}"/>
+    <hyperlink ref="A25" r:id="rId33" xr:uid="{ED5D89E9-76CF-A048-BD72-F0BA151EEC9F}"/>
+    <hyperlink ref="A40" r:id="rId34" xr:uid="{2236CD92-7436-3046-B2AB-2A201C581542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4442,258 +4658,293 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A632-C78C-6347-8E5A-4720E264DA34}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9">
         <v>20211202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <v>20211226</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220905</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220904</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220905</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220904</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220904</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>20220616</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>20220619</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>20220904</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20220820</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220924</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20230218</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20230218</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20230219</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20230219</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20230309</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
         <v>20211128</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
         <v>20220912</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
         <v>20230219</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
         <v>20230308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>20230426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>20230427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12">
+        <v>20230427</v>
       </c>
     </row>
   </sheetData>
@@ -4722,6 +4973,9 @@
     <hyperlink ref="A17" r:id="rId19" display="https://leetcode.cn/problems/zi-fu-chuan-de-pai-lie-lcof/solution/jian-zhi-offer38-zi-fu-chuan-de-pai-lie-fkjkr/" xr:uid="{05AB4772-5075-CA49-A532-CC9F857CD367}"/>
     <hyperlink ref="A22" r:id="rId20" display="https://leetcode.cn/problems/k-similar-strings/solution/854-xiang-si-du-wei-kde-zi-fu-chuan-hui-1epv5/" xr:uid="{8DFC2081-AA9E-A54C-832D-F18030C1DBCE}"/>
     <hyperlink ref="A18" r:id="rId21" display="https://leetcode.cn/problems/step-by-step-directions-from-a-binary-tree-node-to-another/solution/2096-cong-er-cha-shu-yi-ge-jie-dian-dao-62uqn/" xr:uid="{E18DB097-77DB-2944-ADA5-C8B7136D015A}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{F6DB51F5-B97B-EC46-A1AD-E728952D749C}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{FD179983-6ED2-6A4F-8348-CA22710BE9E8}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{7F4AF217-F783-1B4F-B537-7BD546FC0592}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4737,256 +4991,256 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="62.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20221129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
         <v>20220925</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>20221219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>20230225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20221129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>20221219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220912</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>20221010</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>20221213</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>20221220</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20230225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20230225</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20230226</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20230226</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20230308</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20230312</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220726</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
         <v>20230227</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8">
         <v>20230414</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
         <v>20230326</v>
       </c>
     </row>
@@ -5023,194 +5277,207 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7589A38-5576-3242-8FA0-5F40561FA4C2}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="17.6640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20230227</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
         <v>20230227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>190</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>461</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
         <v>20230307</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
         <v>20230227</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>342</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>693</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>476</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>371</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
         <v>20211128</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220620</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>137</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>260</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>338</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>318</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20230311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>20230429</v>
       </c>
     </row>
   </sheetData>
@@ -5225,6 +5492,7 @@
     <hyperlink ref="A12" r:id="rId5" display="https://leetcode-cn.com/problems/add-binary/solution/67-er-jin-zhi-qiu-he-er-jin-zhi-by-wywy-xjbur/" xr:uid="{425415C8-27C2-7145-BA85-27F3506280BD}"/>
     <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/is-unique-lcci/solution/pan-ding-zi-fu-shi-fou-wei-yi-bit-by-ywr-3rks/" xr:uid="{7D2F2735-0C48-B247-BFC8-1105E3BC7758}"/>
     <hyperlink ref="A18" r:id="rId7" display="https://leetcode.cn/problems/cinema-seat-allocation/solution/1386-an-pai-dian-ying-yuan-zuo-wei-bit-b-l08z/" xr:uid="{577E6685-B9DD-754A-8E42-A51972308DDA}"/>
+    <hyperlink ref="A19" r:id="rId8" xr:uid="{4D307CC8-B59F-4F47-AA71-882EF5B4DBD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5335,328 +5603,328 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="64.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>232</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>225</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
         <v>20220825</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12">
         <v>20230312</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>155</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
         <v>20220919</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>739</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>503</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12">
         <v>20220918</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12">
         <v>20221223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12">
         <v>20220825</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
         <v>20220911</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12">
         <v>20220913</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="12">
         <v>20220922</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12">
         <v>20220925</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12">
         <v>20221213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12">
         <v>20230103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
         <v>20230103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12">
         <v>20230103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12">
         <v>20230109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
         <v>20230308</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
         <v>20220820</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
         <v>20220923</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
         <v>20220923</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
         <v>20221018</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12">
         <v>20230404</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
         <v>20230412</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
         <v>20230413</v>
       </c>
     </row>
@@ -5695,183 +5963,238 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF43907A-09FF-DA4F-B1FC-56FBDF277DF3}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="58.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20221020</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
         <v>20230317</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220914</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220918</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>20221207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>20230309</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>20230322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20230327</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20230415</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20230418</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
         <v>20230418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20230419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
+        <v>20230420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20230502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>20230503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>20230506</v>
       </c>
     </row>
   </sheetData>
@@ -5893,6 +6216,11 @@
     <hyperlink ref="A13" r:id="rId12" xr:uid="{F5895EB5-041F-D347-B375-1B358D8FBBDE}"/>
     <hyperlink ref="A14" r:id="rId13" display="https://leetcode.cn/problems/remove-comments/solution/by-wywy-m-ht1s/" xr:uid="{5937915A-E6C1-1747-B65B-3971BC6B9E38}"/>
     <hyperlink ref="A15" r:id="rId14" xr:uid="{FE26434D-C09B-954F-A0DB-D8807DB08814}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{4EA6DCC4-5038-7B43-986D-C434D4F54431}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{2B77CC25-D916-4B40-9441-8631040E2592}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{35FFC04F-364F-384B-9B89-819E14F28EC9}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{A385F209-36C2-7441-A846-61D785287A21}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{A6ACEDF8-CA18-214F-8135-3238A0D745E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5908,130 +6236,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="52.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20220908</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <v>20220907</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220908</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>20230318</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>20230212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
         <v>20230212</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
         <v>20230323</v>
       </c>
     </row>
@@ -6057,192 +6385,216 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F89BF6-4A8D-664D-8E62-AB0D738DFAF1}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="20.33203125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="57.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="16.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="12" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="14.83203125" style="12" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="12"/>
+    <col min="12" max="12" width="20.33203125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="13.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="3" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="15" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="R2" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12">
         <v>20230320</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12">
         <v>20230317</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
         <v>20230316</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
         <v>20230314</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
         <v>20230322</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="12">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>20230420</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="R8" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="L1:Q1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6779990A-D125-7245-B804-90393172C820}"/>
@@ -6250,6 +6602,7 @@
     <hyperlink ref="A5" r:id="rId3" xr:uid="{EAF3CE79-E428-6B4A-B267-A5B7847854EE}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{93CF8410-1552-BE4C-8593-1FBD9F494687}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{8D61AF77-A326-F64B-99B9-4672D806DB6F}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{37A04199-8D5A-4A45-BF03-BA3DD317C703}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6265,74 +6618,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="24.83203125" style="14"/>
+    <col min="1" max="1" width="42.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="24.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9">
         <v>20211127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
         <v>20220619</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220624</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
         <v>20221018</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>20230403</v>
       </c>
     </row>
@@ -6434,521 +6787,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9675C-39F8-DD4C-B84E-2CBC8BF054BB}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14"/>
-    <col min="3" max="3" width="14.6640625" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="65.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="14.6640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20230213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>543</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>226</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>617</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>112</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>572</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>101</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
         <v>20230220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>404</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>687</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>671</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>637</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
         <v>20230213</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
         <v>20230213</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
         <v>20230213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20230214</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20230314</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>337</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>513</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>144</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>94</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9">
         <v>20220814</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9">
         <v>20220824</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9">
         <v>20220824</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
         <v>20220824</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
         <v>20220824</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
         <v>20220824</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9">
         <v>20220905</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="9">
         <v>20220926</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
         <v>20220927</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="9">
         <v>20230213</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
         <v>20230214</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9">
         <v>20230404</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9">
         <v>20230319</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9">
         <v>20230319</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="9">
         <v>145</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>1028</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
+      <c r="A39" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9">
+        <v>20230503</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9">
         <v>20220927</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9">
         <v>20220925</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9">
         <v>20230214</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="14">
+      <c r="B44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12">
         <v>20230322</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="B45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="12">
         <v>20230325</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="B46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12">
         <v>20230402</v>
       </c>
     </row>
@@ -6986,6 +7339,7 @@
     <hyperlink ref="A44" r:id="rId27" xr:uid="{CC14A0A8-50CC-D847-829E-993E8EF49BDF}"/>
     <hyperlink ref="A45" r:id="rId28" xr:uid="{3524C6A1-4A90-054F-AC10-D37588A6DB15}"/>
     <hyperlink ref="A46" r:id="rId29" xr:uid="{C4AE7CA4-776B-F248-BA2A-4D5B88729A2A}"/>
+    <hyperlink ref="A39" r:id="rId30" xr:uid="{00C655BE-BF34-394D-B73C-277004BB9169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6993,249 +7347,260 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2432E89C-45E6-4247-A27A-CCC3BD519878}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.5" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.5" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="3"/>
-    <col min="2" max="2" width="21" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="38.5" style="3"/>
+    <col min="1" max="1" width="58.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="38.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>669</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>235</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>108</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>653</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>501</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>110</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>230</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>538</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>700</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>20230215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>109</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20230214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20230215</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>450</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20220825</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220825</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20220921</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
         <v>20230216</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20230318</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12">
         <v>20230320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12">
+        <v>20230504</v>
       </c>
     </row>
   </sheetData>
@@ -7252,6 +7617,7 @@
     <hyperlink ref="A19" r:id="rId7" display="https://leetcode.cn/problems/unique-binary-search-trees-ii/solution/95-bu-tong-de-er-cha-sou-suo-shu-iibst-b-iim2/" xr:uid="{371F5DB0-AD19-B94F-9AEB-DD2664E8FE8D}"/>
     <hyperlink ref="A20" r:id="rId8" display="https://leetcode.cn/problems/inorder-successor-in-bst-ii/solution/510-er-cha-sou-suo-shu-zhong-de-zhong-xu-7g4f/" xr:uid="{EC10EE72-1496-7247-A3E4-2E417EF2BC05}"/>
     <hyperlink ref="A21" r:id="rId9" xr:uid="{E90B06F4-6424-124E-97E5-4A38493A9AFB}"/>
+    <hyperlink ref="A22" r:id="rId10" xr:uid="{B9CAFA5A-5654-9040-93FD-FA32B2B5388C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7259,381 +7625,425 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38DCB7-D208-4A47-A52C-374E9CD57FFC}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="75.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>217</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>594</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>242</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220626</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220917</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>12.18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
         <v>12.27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
         <v>20220623</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220913</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20220918</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20220918</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20220927</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20221010</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20230312</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
         <v>20230314</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
         <v>20230316</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20230318</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
         <v>20220919</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
         <v>20220920</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
         <v>20230416</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
         <v>20230212</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
         <v>20230321</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12">
         <v>20230325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
         <v>20230326</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12">
         <v>20230401</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="12">
         <v>20230401</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="12">
         <v>20230404</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="B32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12">
         <v>20230416</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="B33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="12">
         <v>20230418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="12">
+        <v>20230424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="12">
+        <v>20230424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="12">
+        <v>20230430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="12">
+        <v>20230503</v>
       </c>
     </row>
   </sheetData>
@@ -7669,6 +8079,10 @@
     <hyperlink ref="A31" r:id="rId26" xr:uid="{334D5610-4995-D240-B875-6C846738CDEB}"/>
     <hyperlink ref="A32" r:id="rId27" xr:uid="{924BCA66-6781-1140-B921-EF1661E4DF06}"/>
     <hyperlink ref="A33" r:id="rId28" xr:uid="{E466206C-14CE-3347-9CC0-BFB9E1DC17A5}"/>
+    <hyperlink ref="A34" r:id="rId29" xr:uid="{D4D4B446-11A3-C541-BC55-A31A9F38C03D}"/>
+    <hyperlink ref="A35" r:id="rId30" xr:uid="{E04B7799-3164-CB4C-8B34-C27D8365DA5D}"/>
+    <hyperlink ref="A36" r:id="rId31" xr:uid="{035CDB08-9480-674A-917A-E1E7DF06C988}"/>
+    <hyperlink ref="A37" r:id="rId32" xr:uid="{AFEE2B65-0EB5-8846-96DB-567E9DE4E31F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7684,240 +8098,240 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="50.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20221229</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
         <v>20220821</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220822</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220822</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220925</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220822</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>445</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>725</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>328</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20220801</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20220804</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
         <v>20220807</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20220821</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
         <v>20220822</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
         <v>20220911</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>20221219</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
         <v>20211221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
         <v>20220821</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
         <v>20230403</v>
       </c>
     </row>
@@ -7949,13 +8363,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5312F16-4C6A-4A4E-8695-9D34E91CF0B1}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.83203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8"/>
@@ -7963,207 +8377,231 @@
     <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>242</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>409</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>205</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>696</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>125</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
         <v>20220906</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
         <v>20220913</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
         <v>20220917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>647</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>20220807</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
         <v>20230317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9">
         <v>20220905</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
         <v>20230321</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12">
         <v>20230402</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
         <v>20230403</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>20230420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>20240501</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="B2:B15" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="B2:B14" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://leetcode.cn/problems/break-a-palindrome/solution/by-wywy-m-4fr2/" xr:uid="{F35C51CB-C198-AD45-B25F-046908BB6D55}"/>
-    <hyperlink ref="A15" r:id="rId2" display="https://leetcode.cn/problems/count-unique-characters-of-all-substrings-of-a-given-string/solution/828-by-wywy-m-luju/" xr:uid="{D4576500-8E3E-A34B-95BB-8C67294465EA}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://leetcode.cn/problems/count-unique-characters-of-all-substrings-of-a-given-string/solution/828-by-wywy-m-luju/" xr:uid="{D4576500-8E3E-A34B-95BB-8C67294465EA}"/>
     <hyperlink ref="A8" r:id="rId3" display="https://leetcode.cn/problems/rearrange-spaces-between-words/solution/169-by-wywy-m-ahcn/" xr:uid="{09D4C7A6-1540-4A43-9465-17A1D768A644}"/>
     <hyperlink ref="A9" r:id="rId4" display="https://leetcode.cn/problems/remove-palindromic-subsequences/solution/1332-by-wywy-m-poch/" xr:uid="{88A0C43C-29EF-1E43-80E3-51A7EB491C48}"/>
     <hyperlink ref="A10" r:id="rId5" display="https://leetcode.cn/problems/check-if-one-string-swap-can-make-strings-equal/solution/-by-wywy-m-d8pw/" xr:uid="{777AAFC0-0469-A24D-B069-F9A640105B3A}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://leetcode.cn/problems/minimum-deletions-to-make-string-balanced/solution/1653-shi-zi-fu-chuan-ping-heng-de-zui-sh-2f0h/" xr:uid="{B9261417-31AF-5642-98AF-B51161C9DE78}"/>
-    <hyperlink ref="A16" r:id="rId7" xr:uid="{4169845B-5CBA-EF49-B6C7-D93D23DA5A3F}"/>
-    <hyperlink ref="A17" r:id="rId8" xr:uid="{6B94E525-530B-5E44-B2F3-3DD147F92859}"/>
-    <hyperlink ref="A18" r:id="rId9" xr:uid="{DE062E1E-BE02-234A-BD60-4353C69A9A8D}"/>
+    <hyperlink ref="A13" r:id="rId6" display="https://leetcode.cn/problems/minimum-deletions-to-make-string-balanced/solution/1653-shi-zi-fu-chuan-ping-heng-de-zui-sh-2f0h/" xr:uid="{B9261417-31AF-5642-98AF-B51161C9DE78}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{4169845B-5CBA-EF49-B6C7-D93D23DA5A3F}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{6B94E525-530B-5E44-B2F3-3DD147F92859}"/>
+    <hyperlink ref="A17" r:id="rId9" xr:uid="{DE062E1E-BE02-234A-BD60-4353C69A9A8D}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{E8FA251A-5D75-B445-8D3F-89545997D5B1}"/>
+    <hyperlink ref="A19" r:id="rId11" xr:uid="{B5E37F17-89E6-3444-91F3-B53EC55AB6CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8171,117 +8609,128 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA87E2-0C96-3045-BD9E-C5C85205F434}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
-    <col min="3" max="3" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="52.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>20230110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <v>20230323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>20230109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220620</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
         <v>20230110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
         <v>20230316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
         <v>20230325</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
         <v>20230327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20230428</v>
       </c>
     </row>
   </sheetData>
@@ -8297,6 +8746,7 @@
     <hyperlink ref="A7" r:id="rId6" display="https://leetcode.cn/problems/maximum-number-of-robots-within-budget/solution/2398-yu-suan-nei-de-zui-duo-ji-qi-ren-sh-c2r7/" xr:uid="{3E7F95E0-F88B-8B4E-BB5A-48442AB5849A}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{CFD18935-3DE1-7247-9859-1F5FFA29B74F}"/>
     <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/sliding-window-median/solution/480-hua-dong-chuang-kou-zhong-wei-shu-er-p3wx/" xr:uid="{962402DE-6ABF-E646-A2BD-A663C8AEFA25}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{8FFBBF8A-038F-8C4F-87E2-6B6966B309CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA186E54-9023-9E4E-A2B2-393CDD4B4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1250DD-E906-EC4D-9427-7155C80C4872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="1" activeTab="13" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" activeTab="8" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Hash" sheetId="6" r:id="rId6"/>
     <sheet name="Linked List" sheetId="7" r:id="rId7"/>
     <sheet name="String" sheetId="8" r:id="rId8"/>
-    <sheet name="Heap" sheetId="9" r:id="rId9"/>
+    <sheet name="Heap PQ" sheetId="9" r:id="rId9"/>
     <sheet name="Binary Search" sheetId="10" r:id="rId10"/>
     <sheet name="Divide &amp; Conquer" sheetId="11" r:id="rId11"/>
     <sheet name="DP" sheetId="12" r:id="rId12"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="419">
   <si>
     <t>#</t>
   </si>
@@ -1307,13 +1307,19 @@
   </si>
   <si>
     <t>2486 追加字符以获得子序列</t>
+  </si>
+  <si>
+    <t>1884 鸡蛋掉落-两枚鸡蛋</t>
+  </si>
+  <si>
+    <t>218 天际线问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1419,14 +1425,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -1455,7 +1453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1494,8 +1492,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2466,10 +2463,10 @@
       <c r="A23" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="16">
         <v>20230428</v>
       </c>
     </row>
@@ -2624,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -3307,6 +3304,17 @@
       </c>
       <c r="C61" s="12">
         <v>20230505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="12">
+        <v>20230619</v>
       </c>
     </row>
   </sheetData>
@@ -3362,6 +3370,7 @@
     <hyperlink ref="A59" r:id="rId46" xr:uid="{47ED332A-B465-074F-85F4-A3C4FCAD4FF5}"/>
     <hyperlink ref="A60" r:id="rId47" xr:uid="{6DF2FC20-1DFD-9242-98C5-A21296A61598}"/>
     <hyperlink ref="A61" r:id="rId48" xr:uid="{8526C2F7-8A20-524C-B11E-BA3902B415C0}"/>
+    <hyperlink ref="A62" r:id="rId49" xr:uid="{0C18CB5C-3DF8-5040-A42C-E77C202EA2C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3844,7 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F31A8D-9C09-434F-A40A-68C34FD0E968}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -5597,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6EE472-789D-FD41-8B4D-13FA02AD5B6B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -6408,38 +6417,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="15" t="s">
         <v>334</v>
       </c>
@@ -8609,10 +8618,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA87E2-0C96-3045-BD9E-C5C85205F434}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -8701,7 +8710,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>351</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -8731,6 +8740,17 @@
       </c>
       <c r="C10" s="8">
         <v>20230428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>20230620</v>
       </c>
     </row>
   </sheetData>
@@ -8747,6 +8767,7 @@
     <hyperlink ref="A8" r:id="rId7" xr:uid="{CFD18935-3DE1-7247-9859-1F5FFA29B74F}"/>
     <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/sliding-window-median/solution/480-hua-dong-chuang-kou-zhong-wei-shu-er-p3wx/" xr:uid="{962402DE-6ABF-E646-A2BD-A663C8AEFA25}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{8FFBBF8A-038F-8C4F-87E2-6B6966B309CC}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{2F9E9FA9-8A3F-484A-B17E-EF8A3C6CA448}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
+++ b/Algorithms/Leetcode/Leetcode Catalog - Yu Wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/Notes/Algorithms/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1250DD-E906-EC4D-9427-7155C80C4872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62BC06C-928C-A14C-BC32-4FF990FC2174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15920" activeTab="8" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="15920" firstSheet="3" activeTab="15" xr2:uid="{D74CB876-27C2-064D-BD73-4428B59FF732}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="425">
   <si>
     <t>#</t>
   </si>
@@ -1313,6 +1313,24 @@
   </si>
   <si>
     <t>218 天际线问题</t>
+  </si>
+  <si>
+    <t>73 矩阵置零</t>
+  </si>
+  <si>
+    <t>75 颜色分类</t>
+  </si>
+  <si>
+    <t>208 实现Trie</t>
+  </si>
+  <si>
+    <t>212 单词搜索II</t>
+  </si>
+  <si>
+    <t>44 通配符匹配</t>
+  </si>
+  <si>
+    <t>269 火星词典</t>
   </si>
 </sst>
 </file>
@@ -2621,9 +2639,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF52CBDF-A54F-B64B-ABC7-BC9DA66EFACF}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -3315,6 +3333,17 @@
       </c>
       <c r="C62" s="12">
         <v>20230619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="12">
+        <v>20230623</v>
       </c>
     </row>
   </sheetData>
@@ -3371,6 +3400,7 @@
     <hyperlink ref="A60" r:id="rId47" xr:uid="{6DF2FC20-1DFD-9242-98C5-A21296A61598}"/>
     <hyperlink ref="A61" r:id="rId48" xr:uid="{8526C2F7-8A20-524C-B11E-BA3902B415C0}"/>
     <hyperlink ref="A62" r:id="rId49" xr:uid="{0C18CB5C-3DF8-5040-A42C-E77C202EA2C8}"/>
+    <hyperlink ref="A63" r:id="rId50" xr:uid="{DF3C8D80-C742-1948-B05B-3352280914C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3851,7 +3881,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F31A8D-9C09-434F-A40A-68C34FD0E968}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
@@ -4148,6 +4178,17 @@
       </c>
       <c r="C27" s="12">
         <v>20230507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
+        <v>20230622</v>
       </c>
     </row>
   </sheetData>
@@ -4175,6 +4216,7 @@
     <hyperlink ref="A22" r:id="rId18" display="https://leetcode.cn/problems/linked-list-cycle-ii/solution/-by-wywy-m-fjpu/" xr:uid="{CD023019-7696-A640-916E-97A74A371A21}"/>
     <hyperlink ref="A26" r:id="rId19" xr:uid="{EC284C1F-ADF6-0447-B1A8-F3DF20F019ED}"/>
     <hyperlink ref="A27" r:id="rId20" xr:uid="{1EFCF0FB-75B5-3245-9040-15D21CA42121}"/>
+    <hyperlink ref="A28" r:id="rId21" xr:uid="{41AD9BD3-B8AD-B94B-97D2-34E1F4D8EBB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4182,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3390D82-F280-2841-A652-0961C2865E3C}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4312,26 +4354,26 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>20230625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>5</v>
@@ -4341,167 +4383,167 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>228</v>
+      <c r="A15" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="9">
-        <v>20220612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="9">
-        <v>20220912</v>
+        <v>20220612</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="9">
-        <v>20220914</v>
+        <v>20220912</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="9">
-        <v>20220917</v>
+        <v>20220914</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="9">
-        <v>20220926</v>
+        <v>20220917</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="9">
-        <v>20221020</v>
+        <v>20220926</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="9">
-        <v>20230220</v>
+        <v>20221020</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9">
-        <v>20221018</v>
+        <v>20230220</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9">
-        <v>20230324</v>
+        <v>20221018</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9">
-        <v>20230220</v>
+        <v>20230324</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>20230220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9">
         <v>20230428</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="9">
-        <v>20220925</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="9">
-        <v>20230219</v>
+        <v>20220925</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="9">
-        <v>20220906</v>
+        <v>20230219</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>5</v>
@@ -4512,7 +4554,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>5</v>
@@ -4523,7 +4565,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>5</v>
@@ -4534,7 +4576,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>5</v>
@@ -4545,7 +4587,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>5</v>
@@ -4556,73 +4598,95 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35" s="9">
-        <v>20220913</v>
+        <v>20220906</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9">
-        <v>20220923</v>
+        <v>20220913</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9">
-        <v>20230308</v>
+        <v>20220923</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9">
-        <v>20230319</v>
+        <v>20230308</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9">
-        <v>20230415</v>
+        <v>20230319</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9">
+        <v>20230415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="9">
         <v>20230429</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12">
+        <v>20230623</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C24">
-    <sortCondition ref="B13:B24" customList="E,M,H"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C25">
+    <sortCondition ref="B14:B25" customList="E,M,H"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://leetcode.cn/problems/all-paths-from-source-to-target/solution/by-wywy-m-nqp0/" xr:uid="{62AA1BDA-9AEF-1D4E-985F-E4BFC300F9ED}"/>
@@ -4632,34 +4696,36 @@
     <hyperlink ref="A7" r:id="rId5" display="https://leetcode.cn/problems/course-schedule-ii/solution/210-ke-cheng-biao-iigraph-by-wywy-m-18nk/" xr:uid="{C7EEFC8F-2387-F14A-B36C-A22ACD69ECCB}"/>
     <hyperlink ref="A8" r:id="rId6" display="https://leetcode.cn/problems/network-delay-time/solution/743-wang-luo-yan-chi-shi-jian-dijkstra-b-6zyo/" xr:uid="{FC2F7E70-70B6-EC40-83E9-F14EEDE1A2B2}"/>
     <hyperlink ref="A9" r:id="rId7" display="https://leetcode.cn/problems/min-cost-to-connect-all-points/solution/1584-lian-jie-suo-you-dian-de-zui-xiao-f-dtmy/" xr:uid="{D6E252E8-6A56-B449-917D-D9191B43E8F1}"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/solution/1091-er-jin-zhi-ju-zhen-zui-duan-lu-jing-00dr/" xr:uid="{678CC0D2-5BB2-9447-A9D9-85A1922DAD7A}"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://leetcode.cn/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution/-by-wywy-m-hks2/" xr:uid="{433B27C5-3ADF-6344-8B10-3C6FE890D909}"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://leetcode.cn/problems/web-crawler/solution/by-wywy-m-tq5x/" xr:uid="{1096138D-EBE2-324D-A769-E0CF4843CC45}"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/solution/117-by-wywy-m-2dey/" xr:uid="{DB4092D2-CEB5-5F40-9A2F-A3D1F3E1FAD5}"/>
-    <hyperlink ref="A18" r:id="rId12" display="https://leetcode.cn/problems/evaluate-division/solution/by-wywy-m-fqcc/" xr:uid="{3BA99F54-D69C-BE40-BD52-19CC44580857}"/>
-    <hyperlink ref="A19" r:id="rId13" display="https://leetcode.cn/problems/walls-and-gates/solution/286-by-wywy-m-v89r/" xr:uid="{A1807D7E-F45A-BC4D-A674-450FE3CC3465}"/>
-    <hyperlink ref="A22" r:id="rId14" display="https://leetcode.cn/problems/shortest-distance-from-all-buildings/solution/317-by-wywy-m-31q4/" xr:uid="{7C3F06B2-F6CE-D941-A3E6-9CC13D48726B}"/>
-    <hyperlink ref="A20" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
-    <hyperlink ref="A24" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
-    <hyperlink ref="A21" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
-    <hyperlink ref="A35" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
-    <hyperlink ref="A36" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
-    <hyperlink ref="A27" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
-    <hyperlink ref="A28" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
-    <hyperlink ref="A29" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
-    <hyperlink ref="A30" r:id="rId22" display="https://leetcode.cn/problems/number-of-closed-islands/solution/1254-tong-ji-feng-bi-by-wywy-m-qc5d/" xr:uid="{7F2AB7CB-072B-9448-BB8B-4B7470CEC5CE}"/>
-    <hyperlink ref="A31" r:id="rId23" display="https://leetcode.cn/problems/number-of-enclaves/solution/1020-fei-di-by-wywy-m-n8fe/" xr:uid="{BACB5764-3CC5-A84C-8DC0-4FD405B3E874}"/>
-    <hyperlink ref="A32" r:id="rId24" display="https://leetcode.cn/problems/max-area-of-island/solution/695-by-wywy-m-iuv4/" xr:uid="{17FBEAD3-6BD2-B54B-AFE1-BCD179AE4565}"/>
-    <hyperlink ref="A33" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
-    <hyperlink ref="A34" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
-    <hyperlink ref="A37" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
-    <hyperlink ref="A38" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
-    <hyperlink ref="A23" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/solution/1091-er-jin-zhi-ju-zhen-zui-duan-lu-jing-00dr/" xr:uid="{678CC0D2-5BB2-9447-A9D9-85A1922DAD7A}"/>
+    <hyperlink ref="A16" r:id="rId9" display="https://leetcode.cn/problems/ji-qi-ren-de-yun-dong-fan-wei-lcof/solution/-by-wywy-m-hks2/" xr:uid="{433B27C5-3ADF-6344-8B10-3C6FE890D909}"/>
+    <hyperlink ref="A17" r:id="rId10" display="https://leetcode.cn/problems/web-crawler/solution/by-wywy-m-tq5x/" xr:uid="{1096138D-EBE2-324D-A769-E0CF4843CC45}"/>
+    <hyperlink ref="A18" r:id="rId11" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/solution/117-by-wywy-m-2dey/" xr:uid="{DB4092D2-CEB5-5F40-9A2F-A3D1F3E1FAD5}"/>
+    <hyperlink ref="A19" r:id="rId12" display="https://leetcode.cn/problems/evaluate-division/solution/by-wywy-m-fqcc/" xr:uid="{3BA99F54-D69C-BE40-BD52-19CC44580857}"/>
+    <hyperlink ref="A20" r:id="rId13" display="https://leetcode.cn/problems/walls-and-gates/solution/286-by-wywy-m-v89r/" xr:uid="{A1807D7E-F45A-BC4D-A674-450FE3CC3465}"/>
+    <hyperlink ref="A23" r:id="rId14" display="https://leetcode.cn/problems/shortest-distance-from-all-buildings/solution/317-by-wywy-m-31q4/" xr:uid="{7C3F06B2-F6CE-D941-A3E6-9CC13D48726B}"/>
+    <hyperlink ref="A21" r:id="rId15" display="https://leetcode.cn/problems/01-matrix/solution/-by-wywy-m-1ak4/" xr:uid="{AC1F76FF-A2DA-694F-A769-2136BC16C971}"/>
+    <hyperlink ref="A25" r:id="rId16" display="https://leetcode.cn/problems/sliding-puzzle/solution/773-hua-dong-mi-ti-bfs-by-ywrx-c74s/" xr:uid="{0AD32694-5038-3D45-918C-C400FC7946DE}"/>
+    <hyperlink ref="A22" r:id="rId17" display="https://leetcode.cn/problems/open-the-lock/solution/752-da-kai-zhuan-pan-suo-bfs-by-ywrx-y6lu/" xr:uid="{479482D9-B268-4348-9013-D7B5073218A6}"/>
+    <hyperlink ref="A36" r:id="rId18" display="https://leetcode.cn/problems/serialize-and-deserialize-n-ary-tree/solution/-by-wywy-m-3tc6/" xr:uid="{8BE83A5B-40AC-A543-935A-56732443F452}"/>
+    <hyperlink ref="A37" display="329 矩阵中的最长递增路径" xr:uid="{328B0723-66CE-B245-91ED-6BD40D9C8C2D}"/>
+    <hyperlink ref="A28" r:id="rId19" display="https://leetcode.cn/problems/lexicographical-numbers/solution/by-wywy-m-zkeq/" xr:uid="{28DEC326-6FFF-FE45-9D81-FA88F9380338}"/>
+    <hyperlink ref="A29" r:id="rId20" display="https://leetcode.cn/problems/surrounded-regions/solution/130-bei-wei-rao-de-qu-yu-dfs-by-ywrx-mgaq/" xr:uid="{8185D2DF-B947-7249-A9B8-CB74F896DE51}"/>
+    <hyperlink ref="A30" r:id="rId21" display="https://leetcode.cn/problems/number-of-islands/solution/200-dao-yu-shu-liang-by-wywy-m-cxtr/" xr:uid="{FF9132AC-9049-064B-B540-E8D27BD1C30B}"/>
+    <hyperlink ref="A31" r:id="rId22" display="https://leetcode.cn/problems/number-of-closed-islands/solution/1254-tong-ji-feng-bi-by-wywy-m-qc5d/" xr:uid="{7F2AB7CB-072B-9448-BB8B-4B7470CEC5CE}"/>
+    <hyperlink ref="A32" r:id="rId23" display="https://leetcode.cn/problems/number-of-enclaves/solution/1020-fei-di-by-wywy-m-n8fe/" xr:uid="{BACB5764-3CC5-A84C-8DC0-4FD405B3E874}"/>
+    <hyperlink ref="A33" r:id="rId24" display="https://leetcode.cn/problems/max-area-of-island/solution/695-by-wywy-m-iuv4/" xr:uid="{17FBEAD3-6BD2-B54B-AFE1-BCD179AE4565}"/>
+    <hyperlink ref="A34" r:id="rId25" display="https://leetcode.cn/problems/count-sub-islands/solution/1905-tong-ji-zi-dao-yu-by-wywy-m-txx9/" xr:uid="{93A063DA-39C1-0549-B8E6-6D257572601D}"/>
+    <hyperlink ref="A35" r:id="rId26" display="https://leetcode.cn/problems/number-of-distinct-islands/solution/-by-wywy-m-mnp1/" xr:uid="{466941BD-CCDE-314E-A33B-DDE50A357DDB}"/>
+    <hyperlink ref="A38" r:id="rId27" display="https://leetcode.cn/problems/cracking-the-safe/solution/753-po-jie-bao-xian-xiang-tu-by-ywrx-sp9h/" xr:uid="{E7988CED-D4A4-354A-8874-C47FC910E55A}"/>
+    <hyperlink ref="A39" r:id="rId28" xr:uid="{BC741E33-D794-4148-9FE5-2D8C789A48D5}"/>
+    <hyperlink ref="A24" r:id="rId29" xr:uid="{F7F1BE06-524D-3F45-A6A1-43D1A4059E77}"/>
     <hyperlink ref="A10" r:id="rId30" xr:uid="{0E22DCEF-0BC9-3444-97D4-2AB1C84A8351}"/>
     <hyperlink ref="A11" r:id="rId31" xr:uid="{287B3E6D-9056-694F-B287-0EF92D0296AA}"/>
-    <hyperlink ref="A39" r:id="rId32" xr:uid="{9F4002CE-364B-494E-B6AB-EFEC92EB2918}"/>
-    <hyperlink ref="A25" r:id="rId33" xr:uid="{ED5D89E9-76CF-A048-BD72-F0BA151EEC9F}"/>
-    <hyperlink ref="A40" r:id="rId34" xr:uid="{2236CD92-7436-3046-B2AB-2A201C581542}"/>
+    <hyperlink ref="A40" r:id="rId32" xr:uid="{9F4002CE-364B-494E-B6AB-EFEC92EB2918}"/>
+    <hyperlink ref="A26" r:id="rId33" xr:uid="{ED5D89E9-76CF-A048-BD72-F0BA151EEC9F}"/>
+    <hyperlink ref="A41" r:id="rId34" xr:uid="{2236CD92-7436-3046-B2AB-2A201C581542}"/>
+    <hyperlink ref="A42" r:id="rId35" xr:uid="{E2609709-3CD3-3648-9A1F-188186BE2B3B}"/>
+    <hyperlink ref="A12" r:id="rId36" xr:uid="{789116A2-DA3B-5146-B1CF-9CE94AFA59AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4669,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A632-C78C-6347-8E5A-4720E264DA34}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -4887,7 +4953,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="9">
-        <v>20211128</v>
+        <v>20230831</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6794,10 +6860,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A9675C-39F8-DD4C-B84E-2CBC8BF054BB}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -7312,6 +7378,17 @@
       </c>
       <c r="C46" s="12">
         <v>20230402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="12">
+        <v>20230623</v>
       </c>
     </row>
   </sheetData>
@@ -7349,6 +7426,7 @@
     <hyperlink ref="A45" r:id="rId28" xr:uid="{3524C6A1-4A90-054F-AC10-D37588A6DB15}"/>
     <hyperlink ref="A46" r:id="rId29" xr:uid="{C4AE7CA4-776B-F248-BA2A-4D5B88729A2A}"/>
     <hyperlink ref="A39" r:id="rId30" xr:uid="{00C655BE-BF34-394D-B73C-277004BB9169}"/>
+    <hyperlink ref="A47" r:id="rId31" xr:uid="{04785873-4BDF-2C4F-9B49-0979DE807FBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8618,9 +8696,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA87E2-0C96-3045-BD9E-C5C85205F434}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -8751,6 +8829,17 @@
       </c>
       <c r="C11" s="8">
         <v>20230620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20230621</v>
       </c>
     </row>
   </sheetData>
@@ -8768,6 +8857,7 @@
     <hyperlink ref="A9" r:id="rId8" display="https://leetcode-cn.com/problems/sliding-window-median/solution/480-hua-dong-chuang-kou-zhong-wei-shu-er-p3wx/" xr:uid="{962402DE-6ABF-E646-A2BD-A663C8AEFA25}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{8FFBBF8A-038F-8C4F-87E2-6B6966B309CC}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{2F9E9FA9-8A3F-484A-B17E-EF8A3C6CA448}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{54E7FF01-2E95-6B4D-ACCE-9A53C5D09AFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
